--- a/TC mundial.xlsx
+++ b/TC mundial.xlsx
@@ -25,112 +25,112 @@
     <t>USDARS=X</t>
   </si>
   <si>
+    <t>USDCAD=X</t>
+  </si>
+  <si>
+    <t>USDCNY=X</t>
+  </si>
+  <si>
+    <t>USDCLP=X</t>
+  </si>
+  <si>
+    <t>USDCOP=X</t>
+  </si>
+  <si>
+    <t>USDHKD=X</t>
+  </si>
+  <si>
+    <t>USDHUF=X</t>
+  </si>
+  <si>
+    <t>USDIDR=X</t>
+  </si>
+  <si>
+    <t>USDINR=X</t>
+  </si>
+  <si>
+    <t>USDILS=X</t>
+  </si>
+  <si>
+    <t>USDJPY=X</t>
+  </si>
+  <si>
+    <t>USDKRW=X</t>
+  </si>
+  <si>
+    <t>USDMYR=X</t>
+  </si>
+  <si>
+    <t>USDMXN=X</t>
+  </si>
+  <si>
+    <t>USDPEN=X</t>
+  </si>
+  <si>
+    <t>USDPHP=X</t>
+  </si>
+  <si>
+    <t>USDPLN=X</t>
+  </si>
+  <si>
+    <t>USDCZK=X</t>
+  </si>
+  <si>
+    <t>USDRON=X</t>
+  </si>
+  <si>
+    <t>USDRUB=X</t>
+  </si>
+  <si>
+    <t>USDSAR=X</t>
+  </si>
+  <si>
+    <t>USDSGD=X</t>
+  </si>
+  <si>
+    <t>USDZAR=X</t>
+  </si>
+  <si>
+    <t>USDSEK=X</t>
+  </si>
+  <si>
+    <t>USDCHF=X</t>
+  </si>
+  <si>
+    <t>USDTWD=X</t>
+  </si>
+  <si>
+    <t>USDTHB=X</t>
+  </si>
+  <si>
+    <t>USDTRY=X</t>
+  </si>
+  <si>
+    <t>GBP=X</t>
+  </si>
+  <si>
+    <t>USDVND=X</t>
+  </si>
+  <si>
+    <t>USDEUR=X</t>
+  </si>
+  <si>
+    <t>DX-Y.NYB</t>
+  </si>
+  <si>
+    <t>HG=F</t>
+  </si>
+  <si>
+    <t>^GSPC</t>
+  </si>
+  <si>
+    <t>^VIX</t>
+  </si>
+  <si>
+    <t>^TNX</t>
+  </si>
+  <si>
     <t>USDBRL=X</t>
-  </si>
-  <si>
-    <t>USDCAD=X</t>
-  </si>
-  <si>
-    <t>USDCNY=X</t>
-  </si>
-  <si>
-    <t>USDCLP=X</t>
-  </si>
-  <si>
-    <t>USDCOP=X</t>
-  </si>
-  <si>
-    <t>USDHKD=X</t>
-  </si>
-  <si>
-    <t>USDHUF=X</t>
-  </si>
-  <si>
-    <t>USDIDR=X</t>
-  </si>
-  <si>
-    <t>USDINR=X</t>
-  </si>
-  <si>
-    <t>USDILS=X</t>
-  </si>
-  <si>
-    <t>USDJPY=X</t>
-  </si>
-  <si>
-    <t>USDKRW=X</t>
-  </si>
-  <si>
-    <t>USDMYR=X</t>
-  </si>
-  <si>
-    <t>USDMXN=X</t>
-  </si>
-  <si>
-    <t>USDPEN=X</t>
-  </si>
-  <si>
-    <t>USDPHP=X</t>
-  </si>
-  <si>
-    <t>USDPLN=X</t>
-  </si>
-  <si>
-    <t>USDCZK=X</t>
-  </si>
-  <si>
-    <t>USDRON=X</t>
-  </si>
-  <si>
-    <t>USDRUB=X</t>
-  </si>
-  <si>
-    <t>USDSAR=X</t>
-  </si>
-  <si>
-    <t>USDSGD=X</t>
-  </si>
-  <si>
-    <t>USDZAR=X</t>
-  </si>
-  <si>
-    <t>USDSEK=X</t>
-  </si>
-  <si>
-    <t>USDCHF=X</t>
-  </si>
-  <si>
-    <t>USDTWD=X</t>
-  </si>
-  <si>
-    <t>USDTHB=X</t>
-  </si>
-  <si>
-    <t>USDTRY=X</t>
-  </si>
-  <si>
-    <t>GBP=X</t>
-  </si>
-  <si>
-    <t>USDVND=X</t>
-  </si>
-  <si>
-    <t>USDEUR=X</t>
-  </si>
-  <si>
-    <t>DX-Y.NYB</t>
-  </si>
-  <si>
-    <t>HG=F</t>
-  </si>
-  <si>
-    <t>^GSPC</t>
-  </si>
-  <si>
-    <t>^VIX</t>
-  </si>
-  <si>
-    <t>^TNX</t>
   </si>
   <si>
     <t>Year</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ26"/>
+  <dimension ref="A1:AQ27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,111 +649,108 @@
         <v>156.9095001220703</v>
       </c>
       <c r="E2">
-        <v>5.178800106048584</v>
+        <v>1.361070036888123</v>
       </c>
       <c r="F2">
-        <v>1.361070036888123</v>
+        <v>7.301799774169922</v>
       </c>
       <c r="G2">
-        <v>7.301799774169922</v>
+        <v>943</v>
       </c>
       <c r="H2">
-        <v>943</v>
+        <v>4937</v>
       </c>
       <c r="I2">
-        <v>4937</v>
+        <v>7.849480152130127</v>
       </c>
       <c r="J2">
-        <v>7.849480152130127</v>
+        <v>413.7349853515625</v>
       </c>
       <c r="K2">
-        <v>413.7349853515625</v>
+        <v>15649</v>
       </c>
       <c r="L2">
-        <v>15649</v>
+        <v>82.72899627685547</v>
       </c>
       <c r="M2">
-        <v>82.72899627685547</v>
+        <v>3.518939971923828</v>
       </c>
       <c r="N2">
-        <v>3.518939971923828</v>
+        <v>148.7369995117188</v>
       </c>
       <c r="O2">
-        <v>148.7369995117188</v>
+        <v>1424.670043945312</v>
       </c>
       <c r="P2">
-        <v>1424.670043945312</v>
+        <v>4.71999979019165</v>
       </c>
       <c r="Q2">
-        <v>4.71999979019165</v>
+        <v>19.79319953918457</v>
       </c>
       <c r="R2">
-        <v>19.79319953918457</v>
+        <v>3.967000007629395</v>
       </c>
       <c r="S2">
-        <v>3.967000007629395</v>
+        <v>58.06999969482422</v>
       </c>
       <c r="T2">
-        <v>58.06999969482422</v>
+        <v>4.767069816589355</v>
       </c>
       <c r="U2">
-        <v>4.767069816589355</v>
+        <v>24.73889923095703</v>
       </c>
       <c r="V2">
-        <v>24.73889923095703</v>
+        <v>4.960700035095215</v>
       </c>
       <c r="W2">
-        <v>4.960700035095215</v>
+        <v>62.01499938964844</v>
       </c>
       <c r="X2">
-        <v>62.01499938964844</v>
+        <v>3.7519690990448</v>
       </c>
       <c r="Y2">
-        <v>3.7519690990448</v>
+        <v>1.415079951286316</v>
       </c>
       <c r="Z2">
-        <v>1.415079951286316</v>
+        <v>18.30270004272461</v>
       </c>
       <c r="AA2">
-        <v>18.30270004272461</v>
+        <v>11.0180196762085</v>
       </c>
       <c r="AB2">
-        <v>11.0180196762085</v>
+        <v>1.001410007476807</v>
       </c>
       <c r="AC2">
-        <v>1.001410007476807</v>
+        <v>32.24769973754883</v>
       </c>
       <c r="AD2">
-        <v>32.24769973754883</v>
+        <v>38.06000137329102</v>
       </c>
       <c r="AE2">
-        <v>38.06000137329102</v>
+        <v>18.61667060852051</v>
       </c>
       <c r="AF2">
-        <v>18.61667060852051</v>
+        <v>0.8719800114631653</v>
       </c>
       <c r="AG2">
-        <v>0.8719800114631653</v>
+        <v>24840</v>
       </c>
       <c r="AH2">
-        <v>24840</v>
+        <v>1.011500000953674</v>
       </c>
       <c r="AI2">
-        <v>1.011500000953674</v>
+        <v>111.4800033569336</v>
       </c>
       <c r="AJ2">
-        <v>111.4800033569336</v>
+        <v>3.509500026702881</v>
       </c>
       <c r="AK2">
-        <v>3.509500026702881</v>
+        <v>3856.10009765625</v>
       </c>
       <c r="AL2">
-        <v>3856.10009765625</v>
+        <v>25.80999946594238</v>
       </c>
       <c r="AM2">
-        <v>25.80999946594238</v>
-      </c>
-      <c r="AN2">
         <v>4.052000045776367</v>
       </c>
       <c r="AO2">
@@ -780,111 +777,108 @@
         <v>157.2847900390625</v>
       </c>
       <c r="E3">
-        <v>5.142399787902832</v>
+        <v>1.361799955368042</v>
       </c>
       <c r="F3">
-        <v>1.361799955368042</v>
+        <v>7.276599884033203</v>
       </c>
       <c r="G3">
-        <v>7.276599884033203</v>
+        <v>942.9400024414062</v>
       </c>
       <c r="H3">
-        <v>942.9400024414062</v>
+        <v>5002.25</v>
       </c>
       <c r="I3">
-        <v>5002.25</v>
+        <v>7.849629878997803</v>
       </c>
       <c r="J3">
-        <v>7.849629878997803</v>
+        <v>411.3250122070312</v>
       </c>
       <c r="K3">
-        <v>411.3250122070312</v>
+        <v>15690</v>
       </c>
       <c r="L3">
-        <v>15690</v>
+        <v>82.68450164794922</v>
       </c>
       <c r="M3">
-        <v>82.68450164794922</v>
+        <v>3.535619974136353</v>
       </c>
       <c r="N3">
-        <v>3.535619974136353</v>
+        <v>147.9149932861328</v>
       </c>
       <c r="O3">
-        <v>147.9149932861328</v>
+        <v>1416.599975585938</v>
       </c>
       <c r="P3">
-        <v>1416.599975585938</v>
+        <v>4.734000205993652</v>
       </c>
       <c r="Q3">
-        <v>4.734000205993652</v>
+        <v>19.72489929199219</v>
       </c>
       <c r="R3">
-        <v>19.72489929199219</v>
+        <v>3.984999895095825</v>
       </c>
       <c r="S3">
-        <v>3.984999895095825</v>
+        <v>58.20999908447266</v>
       </c>
       <c r="T3">
-        <v>58.20999908447266</v>
+        <v>4.758200168609619</v>
       </c>
       <c r="U3">
-        <v>4.758200168609619</v>
+        <v>24.71199989318848</v>
       </c>
       <c r="V3">
-        <v>24.71199989318848</v>
+        <v>4.963799953460693</v>
       </c>
       <c r="W3">
-        <v>4.963799953460693</v>
+        <v>61.71490097045898</v>
       </c>
       <c r="X3">
-        <v>61.71490097045898</v>
+        <v>3.758307933807373</v>
       </c>
       <c r="Y3">
-        <v>3.758307933807373</v>
+        <v>1.414600014686584</v>
       </c>
       <c r="Z3">
-        <v>1.414600014686584</v>
+        <v>18.20879936218262</v>
       </c>
       <c r="AA3">
-        <v>18.20879936218262</v>
+        <v>11.00759029388428</v>
       </c>
       <c r="AB3">
-        <v>11.00759029388428</v>
+        <v>0.9997000098228455</v>
       </c>
       <c r="AC3">
-        <v>0.9997000098228455</v>
+        <v>32.12400054931641</v>
       </c>
       <c r="AD3">
-        <v>32.12400054931641</v>
+        <v>37.70700073242188</v>
       </c>
       <c r="AE3">
-        <v>37.70700073242188</v>
+        <v>18.60429954528809</v>
       </c>
       <c r="AF3">
-        <v>18.60429954528809</v>
+        <v>0.8703600168228149</v>
       </c>
       <c r="AG3">
-        <v>0.8703600168228149</v>
+        <v>24850</v>
       </c>
       <c r="AH3">
-        <v>24850</v>
+        <v>1.012359976768494</v>
       </c>
       <c r="AI3">
-        <v>1.012359976768494</v>
+        <v>111.3499984741211</v>
       </c>
       <c r="AJ3">
-        <v>111.3499984741211</v>
+        <v>3.505500078201294</v>
       </c>
       <c r="AK3">
-        <v>3.505500078201294</v>
+        <v>3759.68994140625</v>
       </c>
       <c r="AL3">
-        <v>3759.68994140625</v>
+        <v>25.86000061035156</v>
       </c>
       <c r="AM3">
-        <v>25.86000061035156</v>
-      </c>
-      <c r="AN3">
         <v>4.059000015258789</v>
       </c>
       <c r="AO3">
@@ -911,111 +905,108 @@
         <v>157.5920104980469</v>
       </c>
       <c r="E4">
-        <v>5.142600059509277</v>
+        <v>1.371520042419434</v>
       </c>
       <c r="F4">
-        <v>1.371520042419434</v>
+        <v>7.288700103759766</v>
       </c>
       <c r="G4">
-        <v>7.288700103759766</v>
+        <v>944.2000122070312</v>
       </c>
       <c r="H4">
-        <v>944.2000122070312</v>
+        <v>5001.27978515625</v>
       </c>
       <c r="I4">
-        <v>5001.27978515625</v>
+        <v>7.84965991973877</v>
       </c>
       <c r="J4">
-        <v>7.84965991973877</v>
+        <v>415.0400085449219</v>
       </c>
       <c r="K4">
-        <v>415.0400085449219</v>
+        <v>15696</v>
       </c>
       <c r="L4">
-        <v>15696</v>
+        <v>82.88839721679688</v>
       </c>
       <c r="M4">
-        <v>82.88839721679688</v>
+        <v>3.528419971466064</v>
       </c>
       <c r="N4">
-        <v>3.528419971466064</v>
+        <v>147.8919982910156</v>
       </c>
       <c r="O4">
-        <v>147.8919982910156</v>
+        <v>1423.099975585938</v>
       </c>
       <c r="P4">
-        <v>1423.099975585938</v>
+        <v>4.736000061035156</v>
       </c>
       <c r="Q4">
-        <v>4.736000061035156</v>
+        <v>19.67840003967285</v>
       </c>
       <c r="R4">
-        <v>19.67840003967285</v>
+        <v>3.950000047683716</v>
       </c>
       <c r="S4">
-        <v>3.950000047683716</v>
+        <v>58.6150016784668</v>
       </c>
       <c r="T4">
-        <v>58.6150016784668</v>
+        <v>4.789790153503418</v>
       </c>
       <c r="U4">
-        <v>4.789790153503418</v>
+        <v>24.93600082397461</v>
       </c>
       <c r="V4">
-        <v>24.93600082397461</v>
+        <v>4.991899967193604</v>
       </c>
       <c r="W4">
-        <v>4.991899967193604</v>
+        <v>61.66500091552734</v>
       </c>
       <c r="X4">
-        <v>61.66500091552734</v>
+        <v>3.753119945526123</v>
       </c>
       <c r="Y4">
-        <v>3.753119945526123</v>
+        <v>1.417899966239929</v>
       </c>
       <c r="Z4">
-        <v>1.417899966239929</v>
+        <v>18.23089981079102</v>
       </c>
       <c r="AA4">
-        <v>18.23089981079102</v>
+        <v>11.10921955108643</v>
       </c>
       <c r="AB4">
-        <v>11.10921955108643</v>
+        <v>1.00328004360199</v>
       </c>
       <c r="AC4">
-        <v>1.00328004360199</v>
+        <v>32.24750137329102</v>
       </c>
       <c r="AD4">
-        <v>32.24750137329102</v>
+        <v>37.83300018310547</v>
       </c>
       <c r="AE4">
-        <v>37.83300018310547</v>
+        <v>18.61499977111816</v>
       </c>
       <c r="AF4">
-        <v>18.61499977111816</v>
+        <v>0.8784000277519226</v>
       </c>
       <c r="AG4">
-        <v>0.8784000277519226</v>
+        <v>24835</v>
       </c>
       <c r="AH4">
-        <v>24835</v>
+        <v>1.018910050392151</v>
       </c>
       <c r="AI4">
-        <v>1.018910050392151</v>
+        <v>112.9300003051758</v>
       </c>
       <c r="AJ4">
-        <v>112.9300003051758</v>
+        <v>3.456500053405762</v>
       </c>
       <c r="AK4">
-        <v>3.456500053405762</v>
+        <v>3719.889892578125</v>
       </c>
       <c r="AL4">
-        <v>3719.889892578125</v>
+        <v>25.29999923706055</v>
       </c>
       <c r="AM4">
-        <v>25.29999923706055</v>
-      </c>
-      <c r="AN4">
         <v>4.124000072479248</v>
       </c>
       <c r="AO4">
@@ -1042,111 +1033,108 @@
         <v>157.8608856201172</v>
       </c>
       <c r="E5">
-        <v>5.1149001121521</v>
+        <v>1.374240040779114</v>
       </c>
       <c r="F5">
-        <v>1.374240040779114</v>
+        <v>7.30079984664917</v>
       </c>
       <c r="G5">
-        <v>7.30079984664917</v>
+        <v>944.1599731445312</v>
       </c>
       <c r="H5">
-        <v>944.1599731445312</v>
+        <v>5067.10986328125</v>
       </c>
       <c r="I5">
-        <v>5067.10986328125</v>
+        <v>7.849760055541992</v>
       </c>
       <c r="J5">
-        <v>7.849760055541992</v>
+        <v>416.2049865722656</v>
       </c>
       <c r="K5">
-        <v>416.2049865722656</v>
+        <v>15780</v>
       </c>
       <c r="L5">
-        <v>15780</v>
+        <v>82.68180084228516</v>
       </c>
       <c r="M5">
-        <v>82.68180084228516</v>
+        <v>3.578429937362671</v>
       </c>
       <c r="N5">
-        <v>3.578429937362671</v>
+        <v>148.3930053710938</v>
       </c>
       <c r="O5">
-        <v>148.3930053710938</v>
+        <v>1423.650024414062</v>
       </c>
       <c r="P5">
-        <v>1423.650024414062</v>
+        <v>4.742000102996826</v>
       </c>
       <c r="Q5">
-        <v>4.742000102996826</v>
+        <v>19.6702709197998</v>
       </c>
       <c r="R5">
-        <v>19.6702709197998</v>
+        <v>3.964999914169312</v>
       </c>
       <c r="S5">
-        <v>3.964999914169312</v>
+        <v>58.94499969482422</v>
       </c>
       <c r="T5">
-        <v>58.94499969482422</v>
+        <v>4.815199851989746</v>
       </c>
       <c r="U5">
-        <v>4.815199851989746</v>
+        <v>25.05590057373047</v>
       </c>
       <c r="V5">
-        <v>25.05590057373047</v>
+        <v>5.021900177001953</v>
       </c>
       <c r="W5">
-        <v>5.021900177001953</v>
+        <v>62.31499862670898</v>
       </c>
       <c r="X5">
-        <v>62.31499862670898</v>
+        <v>3.753997087478638</v>
       </c>
       <c r="Y5">
-        <v>3.753997087478638</v>
+        <v>1.421820044517517</v>
       </c>
       <c r="Z5">
-        <v>1.421820044517517</v>
+        <v>18.37484931945801</v>
       </c>
       <c r="AA5">
-        <v>18.37484931945801</v>
+        <v>11.1894998550415</v>
       </c>
       <c r="AB5">
-        <v>11.1894998550415</v>
+        <v>1.013419985771179</v>
       </c>
       <c r="AC5">
-        <v>1.013419985771179</v>
+        <v>32.15000152587891</v>
       </c>
       <c r="AD5">
-        <v>32.15000152587891</v>
+        <v>38.01200103759766</v>
       </c>
       <c r="AE5">
-        <v>38.01200103759766</v>
+        <v>18.60919952392578</v>
       </c>
       <c r="AF5">
-        <v>18.60919952392578</v>
+        <v>0.8951600193977356</v>
       </c>
       <c r="AG5">
-        <v>0.8951600193977356</v>
+        <v>24860</v>
       </c>
       <c r="AH5">
-        <v>24860</v>
+        <v>1.02567994594574</v>
       </c>
       <c r="AI5">
-        <v>1.02567994594574</v>
+        <v>110.879997253418</v>
       </c>
       <c r="AJ5">
-        <v>110.879997253418</v>
+        <v>3.714499950408936</v>
       </c>
       <c r="AK5">
-        <v>3.714499950408936</v>
+        <v>3770.550048828125</v>
       </c>
       <c r="AL5">
-        <v>3770.550048828125</v>
+        <v>24.54999923706055</v>
       </c>
       <c r="AM5">
-        <v>24.54999923706055</v>
-      </c>
-      <c r="AN5">
         <v>4.156000137329102</v>
       </c>
       <c r="AO5">
@@ -1173,111 +1161,108 @@
         <v>158.8312377929688</v>
       </c>
       <c r="E6">
-        <v>5.078132152557373</v>
+        <v>1.351250052452087</v>
       </c>
       <c r="F6">
-        <v>1.351250052452087</v>
+        <v>7.175099849700928</v>
       </c>
       <c r="G6">
-        <v>7.175099849700928</v>
+        <v>926.260009765625</v>
       </c>
       <c r="H6">
-        <v>926.260009765625</v>
+        <v>4959.29443359375</v>
       </c>
       <c r="I6">
-        <v>4959.29443359375</v>
+        <v>7.849510192871094</v>
       </c>
       <c r="J6">
-        <v>7.849510192871094</v>
+        <v>405.364990234375</v>
       </c>
       <c r="K6">
-        <v>405.364990234375</v>
+        <v>15609.5</v>
       </c>
       <c r="L6">
-        <v>15609.5</v>
+        <v>81.97499847412109</v>
       </c>
       <c r="M6">
-        <v>81.97499847412109</v>
+        <v>3.546040058135986</v>
       </c>
       <c r="N6">
-        <v>3.546040058135986</v>
+        <v>146.8410034179688</v>
       </c>
       <c r="O6">
-        <v>146.8410034179688</v>
+        <v>1402.109985351562</v>
       </c>
       <c r="P6">
-        <v>1402.109985351562</v>
+        <v>4.745500087738037</v>
       </c>
       <c r="Q6">
-        <v>4.745500087738037</v>
+        <v>19.5633602142334</v>
       </c>
       <c r="R6">
-        <v>19.5633602142334</v>
+        <v>3.845370054244995</v>
       </c>
       <c r="S6">
-        <v>3.845370054244995</v>
+        <v>58.22999954223633</v>
       </c>
       <c r="T6">
-        <v>58.22999954223633</v>
+        <v>4.72160005569458</v>
       </c>
       <c r="U6">
-        <v>4.72160005569458</v>
+        <v>24.55120086669922</v>
       </c>
       <c r="V6">
-        <v>24.55120086669922</v>
+        <v>4.939700126647949</v>
       </c>
       <c r="W6">
-        <v>4.939700126647949</v>
+        <v>61.96500015258789</v>
       </c>
       <c r="X6">
-        <v>61.96500015258789</v>
+        <v>3.75819993019104</v>
       </c>
       <c r="Y6">
-        <v>3.75819993019104</v>
+        <v>1.408220052719116</v>
       </c>
       <c r="Z6">
-        <v>1.408220052719116</v>
+        <v>17.97035026550293</v>
       </c>
       <c r="AA6">
-        <v>17.97035026550293</v>
+        <v>10.93196964263916</v>
       </c>
       <c r="AB6">
-        <v>10.93196964263916</v>
+        <v>0.9967399835586548</v>
       </c>
       <c r="AC6">
-        <v>0.9967399835586548</v>
+        <v>31.99900054931641</v>
       </c>
       <c r="AD6">
-        <v>31.99900054931641</v>
+        <v>37.43299865722656</v>
       </c>
       <c r="AE6">
-        <v>37.43299865722656</v>
+        <v>18.60007095336914</v>
       </c>
       <c r="AF6">
-        <v>18.60007095336914</v>
+        <v>0.8824899792671204</v>
       </c>
       <c r="AG6">
-        <v>0.8824899792671204</v>
+        <v>24870</v>
       </c>
       <c r="AH6">
-        <v>24870</v>
+        <v>1.007169961929321</v>
       </c>
       <c r="AI6">
-        <v>1.007169961929321</v>
+        <v>110.120002746582</v>
       </c>
       <c r="AJ6">
-        <v>110.120002746582</v>
+        <v>3.629499912261963</v>
       </c>
       <c r="AK6">
-        <v>3.629499912261963</v>
+        <v>3806.800048828125</v>
       </c>
       <c r="AL6">
-        <v>3806.800048828125</v>
+        <v>24.35000038146973</v>
       </c>
       <c r="AM6">
-        <v>24.35000038146973</v>
-      </c>
-      <c r="AN6">
         <v>4.214000225067139</v>
       </c>
       <c r="AO6">
@@ -1304,111 +1289,108 @@
         <v>159.3484039306641</v>
       </c>
       <c r="E7">
-        <v>5.153326988220215</v>
+        <v>1.349349975585938</v>
       </c>
       <c r="F7">
-        <v>1.349349975585938</v>
+        <v>7.228799819946289</v>
       </c>
       <c r="G7">
-        <v>7.228799819946289</v>
+        <v>916.3499755859375</v>
       </c>
       <c r="H7">
-        <v>916.3499755859375</v>
+        <v>5106</v>
       </c>
       <c r="I7">
-        <v>5106</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="J7">
-        <v>7.849999904632568</v>
+        <v>399.9800109863281</v>
       </c>
       <c r="K7">
-        <v>399.9800109863281</v>
+        <v>15675</v>
       </c>
       <c r="L7">
-        <v>15675</v>
+        <v>81.82599639892578</v>
       </c>
       <c r="M7">
-        <v>81.82599639892578</v>
+        <v>3.542939901351929</v>
       </c>
       <c r="N7">
-        <v>3.542939901351929</v>
+        <v>146.6239929199219</v>
       </c>
       <c r="O7">
-        <v>146.6239929199219</v>
+        <v>1392.699951171875</v>
       </c>
       <c r="P7">
-        <v>1392.699951171875</v>
+        <v>4.745500087738037</v>
       </c>
       <c r="Q7">
-        <v>4.745500087738037</v>
+        <v>19.44309997558594</v>
       </c>
       <c r="R7">
-        <v>19.44309997558594</v>
+        <v>3.941999912261963</v>
       </c>
       <c r="S7">
-        <v>3.941999912261963</v>
+        <v>57.98500061035156</v>
       </c>
       <c r="T7">
-        <v>57.98500061035156</v>
+        <v>4.661099910736084</v>
       </c>
       <c r="U7">
-        <v>4.661099910736084</v>
+        <v>24.18659973144531</v>
       </c>
       <c r="V7">
-        <v>24.18659973144531</v>
+        <v>4.874899864196777</v>
       </c>
       <c r="W7">
-        <v>4.874899864196777</v>
+        <v>63.16500091552734</v>
       </c>
       <c r="X7">
-        <v>63.16500091552734</v>
+        <v>3.751995086669922</v>
       </c>
       <c r="Y7">
-        <v>3.751995086669922</v>
+        <v>1.401360034942627</v>
       </c>
       <c r="Z7">
-        <v>1.401360034942627</v>
+        <v>17.71050071716309</v>
       </c>
       <c r="AA7">
-        <v>17.71050071716309</v>
+        <v>10.84360027313232</v>
       </c>
       <c r="AB7">
-        <v>10.84360027313232</v>
+        <v>0.9888799786567688</v>
       </c>
       <c r="AC7">
-        <v>0.9888799786567688</v>
+        <v>31.85000038146973</v>
       </c>
       <c r="AD7">
-        <v>31.85000038146973</v>
+        <v>37.29999923706055</v>
       </c>
       <c r="AE7">
-        <v>37.29999923706055</v>
+        <v>18.44400024414062</v>
       </c>
       <c r="AF7">
-        <v>18.44400024414062</v>
+        <v>0.8682100176811218</v>
       </c>
       <c r="AG7">
-        <v>0.8682100176811218</v>
+        <v>24870</v>
       </c>
       <c r="AH7">
-        <v>24870</v>
+        <v>0.9981399774551392</v>
       </c>
       <c r="AI7">
-        <v>0.9981399774551392</v>
+        <v>109.620002746582</v>
       </c>
       <c r="AJ7">
-        <v>109.620002746582</v>
+        <v>3.705499887466431</v>
       </c>
       <c r="AK7">
-        <v>3.705499887466431</v>
+        <v>3828.110107421875</v>
       </c>
       <c r="AL7">
-        <v>3828.110107421875</v>
+        <v>25.54000091552734</v>
       </c>
       <c r="AM7">
-        <v>25.54000091552734</v>
-      </c>
-      <c r="AN7">
         <v>4.125999927520752</v>
       </c>
       <c r="AO7">
@@ -1435,111 +1417,108 @@
         <v>159.7171020507812</v>
       </c>
       <c r="E8">
-        <v>5.14300012588501</v>
+        <v>1.341539978981018</v>
       </c>
       <c r="F8">
-        <v>1.341539978981018</v>
+        <v>7.248199939727783</v>
       </c>
       <c r="G8">
-        <v>7.248199939727783</v>
+        <v>906.5</v>
       </c>
       <c r="H8">
-        <v>906.5</v>
+        <v>4972.25</v>
       </c>
       <c r="I8">
-        <v>4972.25</v>
+        <v>7.849100112915039</v>
       </c>
       <c r="J8">
-        <v>7.849100112915039</v>
+        <v>398.7699890136719</v>
       </c>
       <c r="K8">
-        <v>398.7699890136719</v>
+        <v>15645</v>
       </c>
       <c r="L8">
-        <v>15645</v>
+        <v>81.40519714355469</v>
       </c>
       <c r="M8">
-        <v>81.40519714355469</v>
+        <v>3.533600091934204</v>
       </c>
       <c r="N8">
-        <v>3.533600091934204</v>
+        <v>145.2949981689453</v>
       </c>
       <c r="O8">
-        <v>145.2949981689453</v>
+        <v>1374.150024414062</v>
       </c>
       <c r="P8">
-        <v>1374.150024414062</v>
+        <v>4.734000205993652</v>
       </c>
       <c r="Q8">
-        <v>4.734000205993652</v>
+        <v>19.53762054443359</v>
       </c>
       <c r="R8">
-        <v>19.53762054443359</v>
+        <v>3.900000095367432</v>
       </c>
       <c r="S8">
-        <v>3.900000095367432</v>
+        <v>58.15499877929688</v>
       </c>
       <c r="T8">
-        <v>58.15499877929688</v>
+        <v>4.654699802398682</v>
       </c>
       <c r="U8">
-        <v>4.654699802398682</v>
+        <v>24.08200073242188</v>
       </c>
       <c r="V8">
-        <v>24.08200073242188</v>
+        <v>4.854100227355957</v>
       </c>
       <c r="W8">
-        <v>4.854100227355957</v>
+        <v>60.93999862670898</v>
       </c>
       <c r="X8">
-        <v>60.93999862670898</v>
+        <v>3.753784894943237</v>
       </c>
       <c r="Y8">
-        <v>3.753784894943237</v>
+        <v>1.397950053215027</v>
       </c>
       <c r="Z8">
-        <v>1.397950053215027</v>
+        <v>17.7007007598877</v>
       </c>
       <c r="AA8">
-        <v>17.7007007598877</v>
+        <v>10.74738025665283</v>
       </c>
       <c r="AB8">
-        <v>10.74738025665283</v>
+        <v>0.9844499826431274</v>
       </c>
       <c r="AC8">
-        <v>0.9844499826431274</v>
+        <v>31.7898006439209</v>
       </c>
       <c r="AD8">
-        <v>31.7898006439209</v>
+        <v>36.90999984741211</v>
       </c>
       <c r="AE8">
-        <v>36.90999984741211</v>
+        <v>18.54050064086914</v>
       </c>
       <c r="AF8">
-        <v>18.54050064086914</v>
+        <v>0.8655999898910522</v>
       </c>
       <c r="AG8">
-        <v>0.8655999898910522</v>
+        <v>24871</v>
       </c>
       <c r="AH8">
-        <v>24871</v>
+        <v>0.9919800162315369</v>
       </c>
       <c r="AI8">
-        <v>0.9919800162315369</v>
+        <v>110.5500030517578</v>
       </c>
       <c r="AJ8">
-        <v>110.5500030517578</v>
+        <v>3.741499900817871</v>
       </c>
       <c r="AK8">
-        <v>3.741499900817871</v>
+        <v>3748.570068359375</v>
       </c>
       <c r="AL8">
-        <v>3748.570068359375</v>
+        <v>26.09000015258789</v>
       </c>
       <c r="AM8">
-        <v>26.09000015258789</v>
-      </c>
-      <c r="AN8">
         <v>4.151000022888184</v>
       </c>
       <c r="AO8">
@@ -1566,111 +1545,108 @@
         <v>160.0195007324219</v>
       </c>
       <c r="E9">
-        <v>5.185200214385986</v>
+        <v>1.352650046348572</v>
       </c>
       <c r="F9">
-        <v>1.352650046348572</v>
+        <v>7.240799903869629</v>
       </c>
       <c r="G9">
-        <v>7.240799903869629</v>
+        <v>906.5</v>
       </c>
       <c r="H9">
-        <v>906.5</v>
+        <v>4894.81005859375</v>
       </c>
       <c r="I9">
-        <v>4894.81005859375</v>
+        <v>7.849370002746582</v>
       </c>
       <c r="J9">
-        <v>7.849370002746582</v>
+        <v>401.625</v>
       </c>
       <c r="K9">
-        <v>401.625</v>
+        <v>15671.5</v>
       </c>
       <c r="L9">
-        <v>15671.5</v>
+        <v>81.34380340576172</v>
       </c>
       <c r="M9">
-        <v>81.34380340576172</v>
+        <v>3.54748010635376</v>
       </c>
       <c r="N9">
-        <v>3.54748010635376</v>
+        <v>146.2089996337891</v>
       </c>
       <c r="O9">
-        <v>146.2089996337891</v>
+        <v>1370.550048828125</v>
       </c>
       <c r="P9">
-        <v>1370.550048828125</v>
+        <v>4.689499855041504</v>
       </c>
       <c r="Q9">
-        <v>4.689499855041504</v>
+        <v>19.56209945678711</v>
       </c>
       <c r="R9">
-        <v>19.56209945678711</v>
+        <v>3.892499923706055</v>
       </c>
       <c r="S9">
-        <v>3.892499923706055</v>
+        <v>58.11999893188477</v>
       </c>
       <c r="T9">
-        <v>58.11999893188477</v>
+        <v>4.699900150299072</v>
       </c>
       <c r="U9">
-        <v>4.699900150299072</v>
+        <v>24.2180004119873</v>
       </c>
       <c r="V9">
-        <v>24.2180004119873</v>
+        <v>4.866700172424316</v>
       </c>
       <c r="W9">
-        <v>4.866700172424316</v>
+        <v>61.6150016784668</v>
       </c>
       <c r="X9">
-        <v>61.6150016784668</v>
+        <v>3.759900093078613</v>
       </c>
       <c r="Y9">
-        <v>3.759900093078613</v>
+        <v>1.401399970054626</v>
       </c>
       <c r="Z9">
-        <v>1.401399970054626</v>
+        <v>17.75029945373535</v>
       </c>
       <c r="AA9">
-        <v>17.75029945373535</v>
+        <v>10.87769985198975</v>
       </c>
       <c r="AB9">
-        <v>10.87769985198975</v>
+        <v>0.9835000038146973</v>
       </c>
       <c r="AC9">
-        <v>0.9835000038146973</v>
+        <v>31.91200065612793</v>
       </c>
       <c r="AD9">
-        <v>31.91200065612793</v>
+        <v>36.86000061035156</v>
       </c>
       <c r="AE9">
-        <v>36.86000061035156</v>
+        <v>18.58503913879395</v>
       </c>
       <c r="AF9">
-        <v>18.58503913879395</v>
+        <v>0.8796499967575073</v>
       </c>
       <c r="AG9">
-        <v>0.8796499967575073</v>
+        <v>24862</v>
       </c>
       <c r="AH9">
-        <v>24862</v>
+        <v>0.9980499744415283</v>
       </c>
       <c r="AI9">
-        <v>0.9980499744415283</v>
+        <v>108.2099990844727</v>
       </c>
       <c r="AJ9">
-        <v>108.2099990844727</v>
+        <v>3.796000003814697</v>
       </c>
       <c r="AK9">
-        <v>3.796000003814697</v>
+        <v>3956.3701171875</v>
       </c>
       <c r="AL9">
-        <v>3956.3701171875</v>
+        <v>23.53000068664551</v>
       </c>
       <c r="AM9">
-        <v>23.53000068664551</v>
-      </c>
-      <c r="AN9">
         <v>3.828999996185303</v>
       </c>
       <c r="AO9">
@@ -1697,111 +1673,108 @@
         <v>160.3289947509766</v>
       </c>
       <c r="E10">
-        <v>5.341579914093018</v>
+        <v>1.333150029182434</v>
       </c>
       <c r="F10">
-        <v>1.333150029182434</v>
+        <v>7.185900211334229</v>
       </c>
       <c r="G10">
-        <v>7.185900211334229</v>
+        <v>893.9500122070312</v>
       </c>
       <c r="H10">
-        <v>893.9500122070312</v>
+        <v>4801.169921875</v>
       </c>
       <c r="I10">
-        <v>4801.169921875</v>
+        <v>7.845399856567383</v>
       </c>
       <c r="J10">
-        <v>7.845399856567383</v>
+        <v>393.8399963378906</v>
       </c>
       <c r="K10">
-        <v>393.8399963378906</v>
+        <v>15500</v>
       </c>
       <c r="L10">
-        <v>15500</v>
+        <v>80.48290252685547</v>
       </c>
       <c r="M10">
-        <v>80.48290252685547</v>
+        <v>3.476900100708008</v>
       </c>
       <c r="N10">
-        <v>3.476900100708008</v>
+        <v>141.7339935302734</v>
       </c>
       <c r="O10">
-        <v>141.7339935302734</v>
+        <v>1349.369995117188</v>
       </c>
       <c r="P10">
-        <v>1349.369995117188</v>
+        <v>4.697999954223633</v>
       </c>
       <c r="Q10">
-        <v>4.697999954223633</v>
+        <v>19.31550979614258</v>
       </c>
       <c r="R10">
-        <v>19.31550979614258</v>
+        <v>3.892499923706055</v>
       </c>
       <c r="S10">
-        <v>3.892499923706055</v>
+        <v>57.16999816894531</v>
       </c>
       <c r="T10">
-        <v>57.16999816894531</v>
+        <v>4.594769954681396</v>
       </c>
       <c r="U10">
-        <v>4.594769954681396</v>
+        <v>23.81419944763184</v>
       </c>
       <c r="V10">
-        <v>23.81419944763184</v>
+        <v>4.782000064849854</v>
       </c>
       <c r="W10">
-        <v>4.782000064849854</v>
+        <v>60.71500015258789</v>
       </c>
       <c r="X10">
-        <v>60.71500015258789</v>
+        <v>3.754596948623657</v>
       </c>
       <c r="Y10">
-        <v>3.754596948623657</v>
+        <v>1.38346004486084</v>
       </c>
       <c r="Z10">
-        <v>1.38346004486084</v>
+        <v>17.34090042114258</v>
       </c>
       <c r="AA10">
-        <v>17.34090042114258</v>
+        <v>10.59574031829834</v>
       </c>
       <c r="AB10">
-        <v>10.59574031829834</v>
+        <v>0.9649099707603455</v>
       </c>
       <c r="AC10">
-        <v>0.9649099707603455</v>
+        <v>31.40200042724609</v>
       </c>
       <c r="AD10">
-        <v>31.40200042724609</v>
+        <v>36.15999984741211</v>
       </c>
       <c r="AE10">
-        <v>36.15999984741211</v>
+        <v>18.48265075683594</v>
       </c>
       <c r="AF10">
-        <v>18.48265075683594</v>
+        <v>0.8550199866294861</v>
       </c>
       <c r="AG10">
-        <v>0.8550199866294861</v>
+        <v>24865</v>
       </c>
       <c r="AH10">
-        <v>24865</v>
+        <v>0.9811400175094604</v>
       </c>
       <c r="AI10">
-        <v>0.9811400175094604</v>
+        <v>106.2900009155273</v>
       </c>
       <c r="AJ10">
-        <v>106.2900009155273</v>
+        <v>3.950999975204468</v>
       </c>
       <c r="AK10">
-        <v>3.950999975204468</v>
+        <v>3992.929931640625</v>
       </c>
       <c r="AL10">
-        <v>3992.929931640625</v>
+        <v>22.52000045776367</v>
       </c>
       <c r="AM10">
-        <v>22.52000045776367</v>
-      </c>
-      <c r="AN10">
         <v>3.812999963760376</v>
       </c>
       <c r="AO10">
@@ -1828,111 +1801,108 @@
         <v>159.6626739501953</v>
       </c>
       <c r="E11">
-        <v>5.279058933258057</v>
+        <v>1.325399994850159</v>
       </c>
       <c r="F11">
-        <v>1.325399994850159</v>
+        <v>7.107100009918213</v>
       </c>
       <c r="G11">
-        <v>7.107100009918213</v>
+        <v>890.4600219726562</v>
       </c>
       <c r="H11">
-        <v>890.4600219726562</v>
+        <v>4716.70263671875</v>
       </c>
       <c r="I11">
-        <v>4716.70263671875</v>
+        <v>7.835639953613281</v>
       </c>
       <c r="J11">
-        <v>7.835639953613281</v>
+        <v>391.1849975585938</v>
       </c>
       <c r="K11">
-        <v>391.1849975585938</v>
+        <v>15473.900390625</v>
       </c>
       <c r="L11">
-        <v>15473.900390625</v>
+        <v>80.49700164794922</v>
       </c>
       <c r="M11">
-        <v>80.49700164794922</v>
+        <v>3.413300037384033</v>
       </c>
       <c r="N11">
-        <v>3.413300037384033</v>
+        <v>139.5529937744141</v>
       </c>
       <c r="O11">
-        <v>139.5529937744141</v>
+        <v>1313.030029296875</v>
       </c>
       <c r="P11">
-        <v>1313.030029296875</v>
+        <v>4.625</v>
       </c>
       <c r="Q11">
-        <v>4.625</v>
+        <v>19.51442909240723</v>
       </c>
       <c r="R11">
-        <v>19.51442909240723</v>
+        <v>3.74895191192627</v>
       </c>
       <c r="S11">
-        <v>3.74895191192627</v>
+        <v>57.11000061035156</v>
       </c>
       <c r="T11">
-        <v>57.11000061035156</v>
+        <v>4.524099826812744</v>
       </c>
       <c r="U11">
-        <v>4.524099826812744</v>
+        <v>23.46199989318848</v>
       </c>
       <c r="V11">
-        <v>23.46199989318848</v>
+        <v>4.737100124359131</v>
       </c>
       <c r="W11">
-        <v>4.737100124359131</v>
+        <v>60.51499938964844</v>
       </c>
       <c r="X11">
-        <v>60.51499938964844</v>
+        <v>3.758300065994263</v>
       </c>
       <c r="Y11">
-        <v>3.758300065994263</v>
+        <v>1.374449968338013</v>
       </c>
       <c r="Z11">
-        <v>1.374449968338013</v>
+        <v>17.24489974975586</v>
       </c>
       <c r="AA11">
-        <v>17.24489974975586</v>
+        <v>10.39507007598877</v>
       </c>
       <c r="AB11">
-        <v>10.39507007598877</v>
+        <v>0.9440500140190125</v>
       </c>
       <c r="AC11">
-        <v>0.9440500140190125</v>
+        <v>31.09659957885742</v>
       </c>
       <c r="AD11">
-        <v>31.09659957885742</v>
+        <v>36.01800155639648</v>
       </c>
       <c r="AE11">
-        <v>36.01800155639648</v>
+        <v>18.49161911010742</v>
       </c>
       <c r="AF11">
-        <v>18.49161911010742</v>
+        <v>0.8475199937820435</v>
       </c>
       <c r="AG11">
-        <v>0.8475199937820435</v>
+        <v>24805</v>
       </c>
       <c r="AH11">
-        <v>24805</v>
+        <v>0.9681900143623352</v>
       </c>
       <c r="AI11">
-        <v>0.9681900143623352</v>
+        <v>106.6600036621094</v>
       </c>
       <c r="AJ11">
-        <v>106.6600036621094</v>
+        <v>3.855000019073486</v>
       </c>
       <c r="AK11">
-        <v>3.855000019073486</v>
+        <v>3957.25</v>
       </c>
       <c r="AL11">
-        <v>3957.25</v>
+        <v>23.72999954223633</v>
       </c>
       <c r="AM11">
-        <v>23.72999954223633</v>
-      </c>
-      <c r="AN11">
         <v>3.865000009536743</v>
       </c>
       <c r="AO11">
@@ -1959,111 +1929,108 @@
         <v>161.7637023925781</v>
       </c>
       <c r="E12">
-        <v>5.331200122833252</v>
+        <v>1.332470059394836</v>
       </c>
       <c r="F12">
-        <v>1.332470059394836</v>
+        <v>7.07289981842041</v>
       </c>
       <c r="G12">
-        <v>7.07289981842041</v>
+        <v>890.7000122070312</v>
       </c>
       <c r="H12">
-        <v>890.7000122070312</v>
+        <v>4803.56005859375</v>
       </c>
       <c r="I12">
-        <v>4803.56005859375</v>
+        <v>7.835999965667725</v>
       </c>
       <c r="J12">
-        <v>7.835999965667725</v>
+        <v>396.4100036621094</v>
       </c>
       <c r="K12">
-        <v>396.4100036621094</v>
+        <v>15530.099609375</v>
       </c>
       <c r="L12">
-        <v>15530.099609375</v>
+        <v>80.99199676513672</v>
       </c>
       <c r="M12">
-        <v>80.99199676513672</v>
+        <v>3.426800012588501</v>
       </c>
       <c r="N12">
-        <v>3.426800012588501</v>
+        <v>140.1150054931641</v>
       </c>
       <c r="O12">
-        <v>140.1150054931641</v>
+        <v>1324.079956054688</v>
       </c>
       <c r="P12">
-        <v>1324.079956054688</v>
+        <v>4.59250020980835</v>
       </c>
       <c r="Q12">
-        <v>4.59250020980835</v>
+        <v>19.33919906616211</v>
       </c>
       <c r="R12">
-        <v>19.33919906616211</v>
+        <v>3.846999883651733</v>
       </c>
       <c r="S12">
-        <v>3.846999883651733</v>
+        <v>57.02500152587891</v>
       </c>
       <c r="T12">
-        <v>57.02500152587891</v>
+        <v>4.564199924468994</v>
       </c>
       <c r="U12">
-        <v>4.564199924468994</v>
+        <v>23.50200080871582</v>
       </c>
       <c r="V12">
-        <v>23.50200080871582</v>
+        <v>4.749800205230713</v>
       </c>
       <c r="W12">
-        <v>4.749800205230713</v>
+        <v>59.53499984741211</v>
       </c>
       <c r="X12">
-        <v>59.53499984741211</v>
+        <v>3.754044055938721</v>
       </c>
       <c r="Y12">
-        <v>3.754044055938721</v>
+        <v>1.372849941253662</v>
       </c>
       <c r="Z12">
-        <v>1.372849941253662</v>
+        <v>17.28709983825684</v>
       </c>
       <c r="AA12">
-        <v>17.28709983825684</v>
+        <v>10.48972034454346</v>
       </c>
       <c r="AB12">
-        <v>10.48972034454346</v>
+        <v>0.9431999921798706</v>
       </c>
       <c r="AC12">
-        <v>0.9431999921798706</v>
+        <v>30.88899993896484</v>
       </c>
       <c r="AD12">
-        <v>30.88899993896484</v>
+        <v>35.68399810791016</v>
       </c>
       <c r="AE12">
-        <v>35.68399810791016</v>
+        <v>18.59110069274902</v>
       </c>
       <c r="AF12">
-        <v>18.59110069274902</v>
+        <v>0.8508830070495605</v>
       </c>
       <c r="AG12">
-        <v>0.8508830070495605</v>
+        <v>24735</v>
       </c>
       <c r="AH12">
-        <v>24735</v>
+        <v>0.9690600037574768</v>
       </c>
       <c r="AI12">
-        <v>0.9690600037574768</v>
+        <v>106.4000015258789</v>
       </c>
       <c r="AJ12">
-        <v>106.4000015258789</v>
+        <v>3.839499950408936</v>
       </c>
       <c r="AK12">
-        <v>3.839499950408936</v>
+        <v>3991.72998046875</v>
       </c>
       <c r="AL12">
-        <v>3991.72998046875</v>
+        <v>24.54000091552734</v>
       </c>
       <c r="AM12">
-        <v>24.54000091552734</v>
-      </c>
-      <c r="AN12">
         <v>3.799000024795532</v>
       </c>
       <c r="AO12">
@@ -2090,111 +2057,108 @@
         <v>162.1096038818359</v>
       </c>
       <c r="E13">
-        <v>5.331699848175049</v>
+        <v>1.32735002040863</v>
       </c>
       <c r="F13">
-        <v>1.32735002040863</v>
+        <v>7.043000221252441</v>
       </c>
       <c r="G13">
-        <v>7.043000221252441</v>
+        <v>886.5</v>
       </c>
       <c r="H13">
-        <v>886.5</v>
+        <v>4843.93017578125</v>
       </c>
       <c r="I13">
-        <v>4843.93017578125</v>
+        <v>7.819900035858154</v>
       </c>
       <c r="J13">
-        <v>7.819900035858154</v>
+        <v>397.8250122070312</v>
       </c>
       <c r="K13">
-        <v>397.8250122070312</v>
+        <v>15557</v>
       </c>
       <c r="L13">
-        <v>15557</v>
+        <v>81.07140350341797</v>
       </c>
       <c r="M13">
-        <v>81.07140350341797</v>
+        <v>3.410269975662231</v>
       </c>
       <c r="N13">
-        <v>3.410269975662231</v>
+        <v>138.9649963378906</v>
       </c>
       <c r="O13">
-        <v>138.9649963378906</v>
+        <v>1316.260009765625</v>
       </c>
       <c r="P13">
-        <v>1316.260009765625</v>
+        <v>4.5625</v>
       </c>
       <c r="Q13">
-        <v>4.5625</v>
+        <v>19.34119987487793</v>
       </c>
       <c r="R13">
-        <v>19.34119987487793</v>
+        <v>3.819999933242798</v>
       </c>
       <c r="S13">
-        <v>3.819999933242798</v>
+        <v>57.25</v>
       </c>
       <c r="T13">
-        <v>57.25</v>
+        <v>4.574699878692627</v>
       </c>
       <c r="U13">
-        <v>4.574699878692627</v>
+        <v>23.48740005493164</v>
       </c>
       <c r="V13">
-        <v>23.48740005493164</v>
+        <v>4.747700214385986</v>
       </c>
       <c r="W13">
-        <v>4.747700214385986</v>
+        <v>61.3651008605957</v>
       </c>
       <c r="X13">
-        <v>61.3651008605957</v>
+        <v>3.753108024597168</v>
       </c>
       <c r="Y13">
-        <v>3.753108024597168</v>
+        <v>1.370200037956238</v>
       </c>
       <c r="Z13">
-        <v>1.370200037956238</v>
+        <v>17.29050064086914</v>
       </c>
       <c r="AA13">
-        <v>17.29050064086914</v>
+        <v>10.45940017700195</v>
       </c>
       <c r="AB13">
-        <v>10.45940017700195</v>
+        <v>0.9429100155830383</v>
       </c>
       <c r="AC13">
-        <v>0.9429100155830383</v>
+        <v>31.07900047302246</v>
       </c>
       <c r="AD13">
-        <v>31.07900047302246</v>
+        <v>35.54299926757812</v>
       </c>
       <c r="AE13">
-        <v>35.54299926757812</v>
+        <v>18.60770034790039</v>
       </c>
       <c r="AF13">
-        <v>18.60770034790039</v>
+        <v>0.8417199850082397</v>
       </c>
       <c r="AG13">
-        <v>0.8417199850082397</v>
+        <v>24765</v>
       </c>
       <c r="AH13">
-        <v>24765</v>
+        <v>0.9654499888420105</v>
       </c>
       <c r="AI13">
-        <v>0.9654499888420105</v>
+        <v>106.2799987792969</v>
       </c>
       <c r="AJ13">
-        <v>106.2799987792969</v>
+        <v>3.788000106811523</v>
       </c>
       <c r="AK13">
-        <v>3.788000106811523</v>
+        <v>3958.7900390625</v>
       </c>
       <c r="AL13">
-        <v>3958.7900390625</v>
+        <v>24.11000061035156</v>
       </c>
       <c r="AM13">
-        <v>24.11000061035156</v>
-      </c>
-      <c r="AN13">
         <v>3.691999912261963</v>
       </c>
       <c r="AO13">
@@ -2221,111 +2185,108 @@
         <v>162.4593963623047</v>
       </c>
       <c r="E14">
-        <v>5.39900016784668</v>
+        <v>1.333549976348877</v>
       </c>
       <c r="F14">
-        <v>1.333549976348877</v>
+        <v>7.087200164794922</v>
       </c>
       <c r="G14">
-        <v>7.087200164794922</v>
+        <v>911.75</v>
       </c>
       <c r="H14">
-        <v>911.75</v>
+        <v>4938.81005859375</v>
       </c>
       <c r="I14">
-        <v>4938.81005859375</v>
+        <v>7.82420015335083</v>
       </c>
       <c r="J14">
-        <v>7.82420015335083</v>
+        <v>393.5750122070312</v>
       </c>
       <c r="K14">
-        <v>393.5750122070312</v>
+        <v>15655</v>
       </c>
       <c r="L14">
-        <v>15655</v>
+        <v>81.49530029296875</v>
       </c>
       <c r="M14">
-        <v>81.49530029296875</v>
+        <v>3.430799961090088</v>
       </c>
       <c r="N14">
-        <v>3.430799961090088</v>
+        <v>139.3220062255859</v>
       </c>
       <c r="O14">
-        <v>139.3220062255859</v>
+        <v>1336.430053710938</v>
       </c>
       <c r="P14">
-        <v>1336.430053710938</v>
+        <v>4.542500019073486</v>
       </c>
       <c r="Q14">
-        <v>4.542500019073486</v>
+        <v>19.33333969116211</v>
       </c>
       <c r="R14">
-        <v>19.33333969116211</v>
+        <v>3.828999996185303</v>
       </c>
       <c r="S14">
-        <v>3.828999996185303</v>
+        <v>57.41299819946289</v>
       </c>
       <c r="T14">
-        <v>57.41299819946289</v>
+        <v>4.518599987030029</v>
       </c>
       <c r="U14">
-        <v>4.518599987030029</v>
+        <v>23.42219924926758</v>
       </c>
       <c r="V14">
-        <v>23.42219924926758</v>
+        <v>4.729599952697754</v>
       </c>
       <c r="W14">
-        <v>4.729599952697754</v>
+        <v>60.7400016784668</v>
       </c>
       <c r="X14">
-        <v>60.7400016784668</v>
+        <v>3.753937959671021</v>
       </c>
       <c r="Y14">
-        <v>3.753937959671021</v>
+        <v>1.369969964027405</v>
       </c>
       <c r="Z14">
-        <v>1.369969964027405</v>
+        <v>17.23469924926758</v>
       </c>
       <c r="AA14">
-        <v>17.23469924926758</v>
+        <v>10.48464012145996</v>
       </c>
       <c r="AB14">
-        <v>10.48464012145996</v>
+        <v>0.944379985332489</v>
       </c>
       <c r="AC14">
-        <v>0.944379985332489</v>
+        <v>31.03499984741211</v>
       </c>
       <c r="AD14">
-        <v>31.03499984741211</v>
+        <v>35.80199813842773</v>
       </c>
       <c r="AE14">
-        <v>35.80199813842773</v>
+        <v>18.60367965698242</v>
       </c>
       <c r="AF14">
-        <v>18.60367965698242</v>
+        <v>0.8392599821090698</v>
       </c>
       <c r="AG14">
-        <v>0.8392599821090698</v>
+        <v>24775</v>
       </c>
       <c r="AH14">
-        <v>24775</v>
+        <v>0.9620000123977661</v>
       </c>
       <c r="AI14">
-        <v>0.9620000123977661</v>
+        <v>106.6900024414062</v>
       </c>
       <c r="AJ14">
-        <v>106.6900024414062</v>
+        <v>3.689500093460083</v>
       </c>
       <c r="AK14">
-        <v>3.689500093460083</v>
+        <v>3946.56005859375</v>
       </c>
       <c r="AL14">
-        <v>3946.56005859375</v>
+        <v>23.93000030517578</v>
       </c>
       <c r="AM14">
-        <v>23.93000030517578</v>
-      </c>
-      <c r="AN14">
         <v>3.775000095367432</v>
       </c>
       <c r="AO14">
@@ -2352,111 +2313,108 @@
         <v>162.7810974121094</v>
       </c>
       <c r="E15">
-        <v>5.422100067138672</v>
+        <v>1.33213996887207</v>
       </c>
       <c r="F15">
-        <v>1.33213996887207</v>
+        <v>7.156199932098389</v>
       </c>
       <c r="G15">
-        <v>7.156199932098389</v>
+        <v>921.2000122070312</v>
       </c>
       <c r="H15">
-        <v>921.2000122070312</v>
+        <v>4999.169921875</v>
       </c>
       <c r="I15">
-        <v>4999.169921875</v>
+        <v>7.826469898223877</v>
       </c>
       <c r="J15">
-        <v>7.826469898223877</v>
+        <v>396.6799926757812</v>
       </c>
       <c r="K15">
-        <v>396.6799926757812</v>
+        <v>15720</v>
       </c>
       <c r="L15">
-        <v>15720</v>
+        <v>81.52490234375</v>
       </c>
       <c r="M15">
-        <v>81.52490234375</v>
+        <v>3.473700046539307</v>
       </c>
       <c r="N15">
-        <v>3.473700046539307</v>
+        <v>140.4120025634766</v>
       </c>
       <c r="O15">
-        <v>140.4120025634766</v>
+        <v>1342.75</v>
       </c>
       <c r="P15">
-        <v>1342.75</v>
+        <v>4.551300048828125</v>
       </c>
       <c r="Q15">
-        <v>4.551300048828125</v>
+        <v>19.39990043640137</v>
       </c>
       <c r="R15">
-        <v>19.39990043640137</v>
+        <v>3.805000066757202</v>
       </c>
       <c r="S15">
-        <v>3.805000066757202</v>
+        <v>57.45299911499023</v>
       </c>
       <c r="T15">
-        <v>57.45299911499023</v>
+        <v>4.540870189666748</v>
       </c>
       <c r="U15">
-        <v>4.540870189666748</v>
+        <v>23.50200080871582</v>
       </c>
       <c r="V15">
-        <v>23.50200080871582</v>
+        <v>4.750199794769287</v>
       </c>
       <c r="W15">
-        <v>4.750199794769287</v>
+        <v>60.3650016784668</v>
       </c>
       <c r="X15">
-        <v>60.3650016784668</v>
+        <v>3.753720998764038</v>
       </c>
       <c r="Y15">
-        <v>3.753720998764038</v>
+        <v>1.375069975852966</v>
       </c>
       <c r="Z15">
-        <v>1.375069975852966</v>
+        <v>17.31189918518066</v>
       </c>
       <c r="AA15">
-        <v>17.31189918518066</v>
+        <v>10.59521961212158</v>
       </c>
       <c r="AB15">
-        <v>10.59521961212158</v>
+        <v>0.9526799917221069</v>
       </c>
       <c r="AC15">
-        <v>0.9526799917221069</v>
+        <v>31.02499961853027</v>
       </c>
       <c r="AD15">
-        <v>31.02499961853027</v>
+        <v>35.84000015258789</v>
       </c>
       <c r="AE15">
-        <v>35.84000015258789</v>
+        <v>18.59919929504395</v>
       </c>
       <c r="AF15">
-        <v>18.59919929504395</v>
+        <v>0.8431599736213684</v>
       </c>
       <c r="AG15">
-        <v>0.8431599736213684</v>
+        <v>24805</v>
       </c>
       <c r="AH15">
-        <v>24805</v>
+        <v>0.9650899767875671</v>
       </c>
       <c r="AI15">
-        <v>0.9650899767875671</v>
+        <v>106.9300003051758</v>
       </c>
       <c r="AJ15">
-        <v>106.9300003051758</v>
+        <v>3.631999969482422</v>
       </c>
       <c r="AK15">
-        <v>3.631999969482422</v>
+        <v>3965.340087890625</v>
       </c>
       <c r="AL15">
-        <v>3965.340087890625</v>
+        <v>23.1200008392334</v>
       </c>
       <c r="AM15">
-        <v>23.1200008392334</v>
-      </c>
-      <c r="AN15">
         <v>3.818000078201294</v>
       </c>
       <c r="AO15">
@@ -2483,111 +2441,108 @@
         <v>163.0766296386719</v>
       </c>
       <c r="E16">
-        <v>5.38129997253418</v>
+        <v>1.337689995765686</v>
       </c>
       <c r="F16">
-        <v>1.337689995765686</v>
+        <v>7.118899822235107</v>
       </c>
       <c r="G16">
-        <v>7.118899822235107</v>
+        <v>941.2999877929688</v>
       </c>
       <c r="H16">
-        <v>941.2999877929688</v>
+        <v>4987.080078125</v>
       </c>
       <c r="I16">
-        <v>4987.080078125</v>
+        <v>7.819139957427979</v>
       </c>
       <c r="J16">
-        <v>7.819139957427979</v>
+        <v>393.8999938964844</v>
       </c>
       <c r="K16">
-        <v>393.8999938964844</v>
+        <v>15629.400390625</v>
       </c>
       <c r="L16">
-        <v>15629.400390625</v>
+        <v>81.5198974609375</v>
       </c>
       <c r="M16">
-        <v>81.5198974609375</v>
+        <v>3.4653000831604</v>
       </c>
       <c r="N16">
-        <v>3.4653000831604</v>
+        <v>140.2530059814453</v>
       </c>
       <c r="O16">
-        <v>140.2530059814453</v>
+        <v>1339.030029296875</v>
       </c>
       <c r="P16">
-        <v>1339.030029296875</v>
+        <v>4.551300048828125</v>
       </c>
       <c r="Q16">
-        <v>4.551300048828125</v>
+        <v>19.44319915771484</v>
       </c>
       <c r="R16">
-        <v>19.44319915771484</v>
+        <v>3.805000066757202</v>
       </c>
       <c r="S16">
-        <v>3.805000066757202</v>
+        <v>57.19699859619141</v>
       </c>
       <c r="T16">
-        <v>57.19699859619141</v>
+        <v>4.550300121307373</v>
       </c>
       <c r="U16">
-        <v>4.550300121307373</v>
+        <v>23.56439971923828</v>
       </c>
       <c r="V16">
-        <v>23.56439971923828</v>
+        <v>4.766479969024658</v>
       </c>
       <c r="W16">
-        <v>4.766479969024658</v>
+        <v>60.81499862670898</v>
       </c>
       <c r="X16">
-        <v>60.81499862670898</v>
+        <v>3.757600069046021</v>
       </c>
       <c r="Y16">
-        <v>3.757600069046021</v>
+        <v>1.375010013580322</v>
       </c>
       <c r="Z16">
-        <v>1.375010013580322</v>
+        <v>17.19515037536621</v>
       </c>
       <c r="AA16">
-        <v>17.19515037536621</v>
+        <v>10.62444972991943</v>
       </c>
       <c r="AB16">
-        <v>10.62444972991943</v>
+        <v>0.9533299803733826</v>
       </c>
       <c r="AC16">
-        <v>0.9533299803733826</v>
+        <v>31.11129951477051</v>
       </c>
       <c r="AD16">
-        <v>31.11129951477051</v>
+        <v>35.75500106811523</v>
       </c>
       <c r="AE16">
-        <v>35.75500106811523</v>
+        <v>18.61042976379395</v>
       </c>
       <c r="AF16">
-        <v>18.61042976379395</v>
+        <v>0.8413000106811523</v>
       </c>
       <c r="AG16">
-        <v>0.8413000106811523</v>
+        <v>24800</v>
       </c>
       <c r="AH16">
-        <v>24800</v>
+        <v>0.9679700136184692</v>
       </c>
       <c r="AI16">
-        <v>0.9679700136184692</v>
+        <v>107.8399963378906</v>
       </c>
       <c r="AJ16">
-        <v>107.8399963378906</v>
+        <v>3.571500062942505</v>
       </c>
       <c r="AK16">
-        <v>3.571500062942505</v>
+        <v>3949.93994140625</v>
       </c>
       <c r="AL16">
-        <v>3949.93994140625</v>
+        <v>22.36000061035156</v>
       </c>
       <c r="AM16">
-        <v>22.36000061035156</v>
-      </c>
-      <c r="AN16">
         <v>3.825000047683716</v>
       </c>
       <c r="AO16">
@@ -2614,111 +2569,108 @@
         <v>163.1308288574219</v>
       </c>
       <c r="E17">
-        <v>5.318600177764893</v>
+        <v>1.344630002975464</v>
       </c>
       <c r="F17">
-        <v>1.344630002975464</v>
+        <v>7.164199829101562</v>
       </c>
       <c r="G17">
-        <v>7.164199829101562</v>
+        <v>941.5999755859375</v>
       </c>
       <c r="H17">
-        <v>941.5999755859375</v>
+        <v>4946.25</v>
       </c>
       <c r="I17">
-        <v>4946.25</v>
+        <v>7.804299831390381</v>
       </c>
       <c r="J17">
-        <v>7.804299831390381</v>
+        <v>399.0599975585938</v>
       </c>
       <c r="K17">
-        <v>399.0599975585938</v>
+        <v>15755</v>
       </c>
       <c r="L17">
-        <v>15755</v>
+        <v>81.72769927978516</v>
       </c>
       <c r="M17">
-        <v>81.72769927978516</v>
+        <v>3.473599910736084</v>
       </c>
       <c r="N17">
-        <v>3.473599910736084</v>
+        <v>142.0980072021484</v>
       </c>
       <c r="O17">
-        <v>142.0980072021484</v>
+        <v>1359.75</v>
       </c>
       <c r="P17">
-        <v>1359.75</v>
+        <v>4.576499938964844</v>
       </c>
       <c r="Q17">
-        <v>4.576499938964844</v>
+        <v>19.53160095214844</v>
       </c>
       <c r="R17">
-        <v>19.53160095214844</v>
+        <v>3.829999923706055</v>
       </c>
       <c r="S17">
-        <v>3.829999923706055</v>
+        <v>57.43999862670898</v>
       </c>
       <c r="T17">
-        <v>57.43999862670898</v>
+        <v>4.584424018859863</v>
       </c>
       <c r="U17">
-        <v>4.584424018859863</v>
+        <v>23.69400024414062</v>
       </c>
       <c r="V17">
-        <v>23.69400024414062</v>
+        <v>4.816800117492676</v>
       </c>
       <c r="W17">
-        <v>4.816800117492676</v>
+        <v>60.625</v>
       </c>
       <c r="X17">
-        <v>60.625</v>
+        <v>3.753216028213501</v>
       </c>
       <c r="Y17">
-        <v>3.753216028213501</v>
+        <v>1.38129997253418</v>
       </c>
       <c r="Z17">
-        <v>1.38129997253418</v>
+        <v>17.32410049438477</v>
       </c>
       <c r="AA17">
-        <v>17.32410049438477</v>
+        <v>10.70164966583252</v>
       </c>
       <c r="AB17">
-        <v>10.70164966583252</v>
+        <v>0.9584299921989441</v>
       </c>
       <c r="AC17">
-        <v>0.9584299921989441</v>
+        <v>31.13100051879883</v>
       </c>
       <c r="AD17">
-        <v>31.13100051879883</v>
+        <v>36.29000091552734</v>
       </c>
       <c r="AE17">
-        <v>36.29000091552734</v>
+        <v>18.60059928894043</v>
       </c>
       <c r="AF17">
-        <v>18.60059928894043</v>
+        <v>0.8454800248146057</v>
       </c>
       <c r="AG17">
-        <v>0.8454800248146057</v>
+        <v>24835</v>
       </c>
       <c r="AH17">
-        <v>24835</v>
+        <v>0.9760199785232544</v>
       </c>
       <c r="AI17">
-        <v>0.9760199785232544</v>
+        <v>107.2200012207031</v>
       </c>
       <c r="AJ17">
-        <v>107.2200012207031</v>
+        <v>3.614500045776367</v>
       </c>
       <c r="AK17">
-        <v>3.614500045776367</v>
+        <v>4003.580078125</v>
       </c>
       <c r="AL17">
-        <v>4003.580078125</v>
+        <v>21.29000091552734</v>
       </c>
       <c r="AM17">
-        <v>21.29000091552734</v>
-      </c>
-      <c r="AN17">
         <v>3.757999897003174</v>
       </c>
       <c r="AO17">
@@ -2745,111 +2697,108 @@
         <v>164.4963989257812</v>
       </c>
       <c r="E18">
-        <v>5.357699871063232</v>
+        <v>1.336249947547913</v>
       </c>
       <c r="F18">
-        <v>1.336249947547913</v>
+        <v>7.139299869537354</v>
       </c>
       <c r="G18">
-        <v>7.139299869537354</v>
+        <v>926</v>
       </c>
       <c r="H18">
-        <v>926</v>
+        <v>4905.009765625</v>
       </c>
       <c r="I18">
-        <v>4905.009765625</v>
+        <v>7.817399978637695</v>
       </c>
       <c r="J18">
-        <v>7.817399978637695</v>
+        <v>393.8049926757812</v>
       </c>
       <c r="K18">
-        <v>393.8049926757812</v>
+        <v>15671</v>
       </c>
       <c r="L18">
-        <v>15671</v>
+        <v>81.71499633789062</v>
       </c>
       <c r="M18">
-        <v>81.71499633789062</v>
+        <v>3.468199968338013</v>
       </c>
       <c r="N18">
-        <v>3.468199968338013</v>
+        <v>141.1549987792969</v>
       </c>
       <c r="O18">
-        <v>141.1549987792969</v>
+        <v>1352.68994140625</v>
       </c>
       <c r="P18">
-        <v>1352.68994140625</v>
+        <v>4.567500114440918</v>
       </c>
       <c r="Q18">
-        <v>4.567500114440918</v>
+        <v>19.44190979003906</v>
       </c>
       <c r="R18">
-        <v>19.44190979003906</v>
+        <v>3.835999965667725</v>
       </c>
       <c r="S18">
-        <v>3.835999965667725</v>
+        <v>57.28499984741211</v>
       </c>
       <c r="T18">
-        <v>57.28499984741211</v>
+        <v>4.563430786132812</v>
       </c>
       <c r="U18">
-        <v>4.563430786132812</v>
+        <v>23.59149932861328</v>
       </c>
       <c r="V18">
-        <v>23.59149932861328</v>
+        <v>4.779500007629395</v>
       </c>
       <c r="W18">
-        <v>4.779500007629395</v>
+        <v>60.63000106811523</v>
       </c>
       <c r="X18">
-        <v>60.63000106811523</v>
+        <v>3.753705978393555</v>
       </c>
       <c r="Y18">
-        <v>3.753705978393555</v>
+        <v>1.377940058708191</v>
       </c>
       <c r="Z18">
-        <v>1.377940058708191</v>
+        <v>17.24650001525879</v>
       </c>
       <c r="AA18">
-        <v>17.24650001525879</v>
+        <v>10.6278600692749</v>
       </c>
       <c r="AB18">
-        <v>10.6278600692749</v>
+        <v>0.9510899782180786</v>
       </c>
       <c r="AC18">
-        <v>0.9510899782180786</v>
+        <v>31.10720062255859</v>
       </c>
       <c r="AD18">
-        <v>31.10720062255859</v>
+        <v>36.09000015258789</v>
       </c>
       <c r="AE18">
-        <v>36.09000015258789</v>
+        <v>18.61210060119629</v>
       </c>
       <c r="AF18">
-        <v>18.61210060119629</v>
+        <v>0.840719997882843</v>
       </c>
       <c r="AG18">
-        <v>0.840719997882843</v>
+        <v>24850</v>
       </c>
       <c r="AH18">
-        <v>24850</v>
+        <v>0.9698299765586853</v>
       </c>
       <c r="AI18">
-        <v>0.9698299765586853</v>
+        <v>106.0800018310547</v>
       </c>
       <c r="AJ18">
-        <v>106.0800018310547</v>
+        <v>3.617500066757202</v>
       </c>
       <c r="AK18">
-        <v>3.617500066757202</v>
+        <v>4027.260009765625</v>
       </c>
       <c r="AL18">
-        <v>4027.260009765625</v>
+        <v>20.35000038146973</v>
       </c>
       <c r="AM18">
-        <v>20.35000038146973</v>
-      </c>
-      <c r="AN18">
         <v>3.706000089645386</v>
       </c>
       <c r="AO18">
@@ -2876,111 +2825,108 @@
         <v>164.7596130371094</v>
       </c>
       <c r="E19">
-        <v>5.35830020904541</v>
+        <v>1.334360003471375</v>
       </c>
       <c r="F19">
-        <v>1.334360003471375</v>
+        <v>7.165800094604492</v>
       </c>
       <c r="G19">
-        <v>7.165800094604492</v>
+        <v>915.9500122070312</v>
       </c>
       <c r="H19">
-        <v>915.9500122070312</v>
+        <v>4881.60986328125</v>
       </c>
       <c r="I19">
-        <v>4881.60986328125</v>
+        <v>7.818099975585938</v>
       </c>
       <c r="J19">
-        <v>7.818099975585938</v>
+        <v>393.9200134277344</v>
       </c>
       <c r="K19">
-        <v>393.9200134277344</v>
+        <v>15619.599609375</v>
       </c>
       <c r="L19">
-        <v>15619.599609375</v>
+        <v>81.63289642333984</v>
       </c>
       <c r="M19">
-        <v>81.63289642333984</v>
+        <v>3.421600103378296</v>
       </c>
       <c r="N19">
-        <v>3.421600103378296</v>
+        <v>139.2779998779297</v>
       </c>
       <c r="O19">
-        <v>139.2779998779297</v>
+        <v>1336.81005859375</v>
       </c>
       <c r="P19">
-        <v>1336.81005859375</v>
+        <v>4.572000026702881</v>
       </c>
       <c r="Q19">
-        <v>4.572000026702881</v>
+        <v>19.33499908447266</v>
       </c>
       <c r="R19">
-        <v>19.33499908447266</v>
+        <v>3.847500085830688</v>
       </c>
       <c r="S19">
-        <v>3.847500085830688</v>
+        <v>56.77500152587891</v>
       </c>
       <c r="T19">
-        <v>56.77500152587891</v>
+        <v>4.511899948120117</v>
       </c>
       <c r="U19">
-        <v>4.511899948120117</v>
+        <v>23.37269973754883</v>
       </c>
       <c r="V19">
-        <v>23.37269973754883</v>
+        <v>4.732699871063232</v>
       </c>
       <c r="W19">
-        <v>4.732699871063232</v>
+        <v>60.76499938964844</v>
       </c>
       <c r="X19">
-        <v>60.76499938964844</v>
+        <v>3.753568887710571</v>
       </c>
       <c r="Y19">
-        <v>3.753568887710571</v>
+        <v>1.376320004463196</v>
       </c>
       <c r="Z19">
-        <v>1.376320004463196</v>
+        <v>16.96879959106445</v>
       </c>
       <c r="AA19">
-        <v>16.96879959106445</v>
+        <v>10.43179988861084</v>
       </c>
       <c r="AB19">
-        <v>10.43179988861084</v>
+        <v>0.9406999945640564</v>
       </c>
       <c r="AC19">
-        <v>0.9406999945640564</v>
+        <v>31.0797004699707</v>
       </c>
       <c r="AD19">
-        <v>31.0797004699707</v>
+        <v>35.97999954223633</v>
       </c>
       <c r="AE19">
-        <v>35.97999954223633</v>
+        <v>18.60899925231934</v>
       </c>
       <c r="AF19">
-        <v>18.60899925231934</v>
+        <v>0.8282600045204163</v>
       </c>
       <c r="AG19">
-        <v>0.8282600045204163</v>
+        <v>24844</v>
       </c>
       <c r="AH19">
-        <v>24844</v>
+        <v>0.9600399732589722</v>
       </c>
       <c r="AI19">
-        <v>0.9600399732589722</v>
+        <v>105.8499984741211</v>
       </c>
       <c r="AJ19">
-        <v>105.8499984741211</v>
+        <v>3.626499891281128</v>
       </c>
       <c r="AK19">
-        <v>3.626499891281128</v>
+        <v>4026.1201171875</v>
       </c>
       <c r="AL19">
-        <v>4026.1201171875</v>
+        <v>20.5</v>
       </c>
       <c r="AM19">
-        <v>20.5</v>
-      </c>
-      <c r="AN19">
         <v>3.690999984741211</v>
       </c>
       <c r="AO19">
@@ -3007,111 +2953,108 @@
         <v>165.2142028808594</v>
       </c>
       <c r="E20">
-        <v>5.320000171661377</v>
+        <v>1.333660006523132</v>
       </c>
       <c r="F20">
-        <v>1.333660006523132</v>
+        <v>7.150300025939941</v>
       </c>
       <c r="G20">
-        <v>7.150300025939941</v>
+        <v>909.8499755859375</v>
       </c>
       <c r="H20">
-        <v>909.8499755859375</v>
+        <v>4899.81005859375</v>
       </c>
       <c r="I20">
-        <v>4899.81005859375</v>
+        <v>7.80840015411377</v>
       </c>
       <c r="J20">
-        <v>7.80840015411377</v>
+        <v>396.6700134277344</v>
       </c>
       <c r="K20">
-        <v>396.6700134277344</v>
+        <v>15605</v>
       </c>
       <c r="L20">
-        <v>15605</v>
+        <v>81.65540313720703</v>
       </c>
       <c r="M20">
-        <v>81.65540313720703</v>
+        <v>3.418200016021729</v>
       </c>
       <c r="N20">
-        <v>3.418200016021729</v>
+        <v>138.6029968261719</v>
       </c>
       <c r="O20">
-        <v>138.6029968261719</v>
+        <v>1317.890014648438</v>
       </c>
       <c r="P20">
-        <v>1317.890014648438</v>
+        <v>4.492499828338623</v>
       </c>
       <c r="Q20">
-        <v>4.492499828338623</v>
+        <v>19.38129997253418</v>
       </c>
       <c r="R20">
-        <v>19.38129997253418</v>
+        <v>3.784732103347778</v>
       </c>
       <c r="S20">
-        <v>3.784732103347778</v>
+        <v>56.63999938964844</v>
       </c>
       <c r="T20">
-        <v>56.63999938964844</v>
+        <v>4.512599945068359</v>
       </c>
       <c r="U20">
-        <v>4.512599945068359</v>
+        <v>23.41900062561035</v>
       </c>
       <c r="V20">
-        <v>23.41900062561035</v>
+        <v>4.722700119018555</v>
       </c>
       <c r="W20">
-        <v>4.722700119018555</v>
+        <v>60.33000183105469</v>
       </c>
       <c r="X20">
-        <v>60.33000183105469</v>
+        <v>3.757299900054932</v>
       </c>
       <c r="Y20">
-        <v>3.757299900054932</v>
+        <v>1.375460028648376</v>
       </c>
       <c r="Z20">
-        <v>1.375460028648376</v>
+        <v>17.00058937072754</v>
       </c>
       <c r="AA20">
-        <v>17.00058937072754</v>
+        <v>10.38636016845703</v>
       </c>
       <c r="AB20">
-        <v>10.38636016845703</v>
+        <v>0.94336998462677</v>
       </c>
       <c r="AC20">
-        <v>0.94336998462677</v>
+        <v>30.91300010681152</v>
       </c>
       <c r="AD20">
-        <v>30.91300010681152</v>
+        <v>35.77999877929688</v>
       </c>
       <c r="AE20">
-        <v>35.77999877929688</v>
+        <v>18.62680053710938</v>
       </c>
       <c r="AF20">
-        <v>18.62680053710938</v>
+        <v>0.8255299925804138</v>
       </c>
       <c r="AG20">
-        <v>0.8255299925804138</v>
+        <v>24833</v>
       </c>
       <c r="AH20">
-        <v>24833</v>
+        <v>0.9607899785041809</v>
       </c>
       <c r="AI20">
-        <v>0.9607899785041809</v>
+        <v>105.9599990844727</v>
       </c>
       <c r="AJ20">
-        <v>105.9599990844727</v>
+        <v>3.626499891281128</v>
       </c>
       <c r="AK20">
-        <v>3.626499891281128</v>
+        <v>4026.1201171875</v>
       </c>
       <c r="AL20">
-        <v>4026.1201171875</v>
+        <v>20.5</v>
       </c>
       <c r="AM20">
-        <v>20.5</v>
-      </c>
-      <c r="AN20">
         <v>3.690999984741211</v>
       </c>
       <c r="AO20">
@@ -3138,111 +3081,108 @@
         <v>166.0638122558594</v>
       </c>
       <c r="E21">
-        <v>5.408500194549561</v>
+        <v>1.340960025787354</v>
       </c>
       <c r="F21">
-        <v>1.340960025787354</v>
+        <v>7.170499801635742</v>
       </c>
       <c r="G21">
-        <v>7.170499801635742</v>
+        <v>921.72998046875</v>
       </c>
       <c r="H21">
-        <v>921.72998046875</v>
+        <v>4863.81982421875</v>
       </c>
       <c r="I21">
-        <v>4863.81982421875</v>
+        <v>7.808090209960938</v>
       </c>
       <c r="J21">
-        <v>7.808090209960938</v>
+        <v>394.4750061035156</v>
       </c>
       <c r="K21">
-        <v>394.4750061035156</v>
+        <v>15675.099609375</v>
       </c>
       <c r="L21">
-        <v>15675.099609375</v>
+        <v>81.66970062255859</v>
       </c>
       <c r="M21">
-        <v>81.66970062255859</v>
+        <v>3.420200109481812</v>
       </c>
       <c r="N21">
-        <v>3.420200109481812</v>
+        <v>139.1000061035156</v>
       </c>
       <c r="O21">
-        <v>139.1000061035156</v>
+        <v>1334.56005859375</v>
       </c>
       <c r="P21">
-        <v>1334.56005859375</v>
+        <v>4.477499961853027</v>
       </c>
       <c r="Q21">
-        <v>4.477499961853027</v>
+        <v>19.34354019165039</v>
       </c>
       <c r="R21">
-        <v>19.34354019165039</v>
+        <v>3.869999885559082</v>
       </c>
       <c r="S21">
-        <v>3.869999885559082</v>
+        <v>56.68999862670898</v>
       </c>
       <c r="T21">
-        <v>56.68999862670898</v>
+        <v>4.52235221862793</v>
       </c>
       <c r="U21">
-        <v>4.52235221862793</v>
+        <v>23.45590019226074</v>
       </c>
       <c r="V21">
-        <v>23.45590019226074</v>
+        <v>4.725399971008301</v>
       </c>
       <c r="W21">
-        <v>4.725399971008301</v>
+        <v>60.46500015258789</v>
       </c>
       <c r="X21">
-        <v>60.46500015258789</v>
+        <v>3.75629997253418</v>
       </c>
       <c r="Y21">
-        <v>3.75629997253418</v>
+        <v>1.378720045089722</v>
       </c>
       <c r="Z21">
-        <v>1.378720045089722</v>
+        <v>17.0762996673584</v>
       </c>
       <c r="AA21">
-        <v>17.0762996673584</v>
+        <v>10.45557975769043</v>
       </c>
       <c r="AB21">
-        <v>10.45557975769043</v>
+        <v>0.947380006313324</v>
       </c>
       <c r="AC21">
-        <v>0.947380006313324</v>
+        <v>30.92849922180176</v>
       </c>
       <c r="AD21">
-        <v>30.92849922180176</v>
+        <v>35.95600128173828</v>
       </c>
       <c r="AE21">
-        <v>35.95600128173828</v>
+        <v>18.59602928161621</v>
       </c>
       <c r="AF21">
-        <v>18.59602928161621</v>
+        <v>0.82955002784729</v>
       </c>
       <c r="AG21">
-        <v>0.82955002784729</v>
+        <v>24760</v>
       </c>
       <c r="AH21">
-        <v>24760</v>
+        <v>0.9645500183105469</v>
       </c>
       <c r="AI21">
-        <v>0.9645500183105469</v>
+        <v>106.6800003051758</v>
       </c>
       <c r="AJ21">
-        <v>106.6800003051758</v>
+        <v>3.61050009727478</v>
       </c>
       <c r="AK21">
-        <v>3.61050009727478</v>
+        <v>3963.93994140625</v>
       </c>
       <c r="AL21">
-        <v>3963.93994140625</v>
+        <v>22.20999908447266</v>
       </c>
       <c r="AM21">
-        <v>22.20999908447266</v>
-      </c>
-      <c r="AN21">
         <v>3.703000068664551</v>
       </c>
       <c r="AO21">
@@ -3269,111 +3209,108 @@
         <v>166.6145172119141</v>
       </c>
       <c r="E22">
-        <v>5.364699840545654</v>
+        <v>1.348989963531494</v>
       </c>
       <c r="F22">
-        <v>1.348989963531494</v>
+        <v>7.207099914550781</v>
       </c>
       <c r="G22">
-        <v>7.207099914550781</v>
+        <v>912.9500122070312</v>
       </c>
       <c r="H22">
-        <v>912.9500122070312</v>
+        <v>4833.33984375</v>
       </c>
       <c r="I22">
-        <v>4833.33984375</v>
+        <v>7.813419818878174</v>
       </c>
       <c r="J22">
-        <v>7.813419818878174</v>
+        <v>392.9649963378906</v>
       </c>
       <c r="K22">
-        <v>392.9649963378906</v>
+        <v>15746</v>
       </c>
       <c r="L22">
-        <v>15746</v>
+        <v>81.65029907226562</v>
       </c>
       <c r="M22">
-        <v>81.65029907226562</v>
+        <v>3.43179988861084</v>
       </c>
       <c r="N22">
-        <v>3.43179988861084</v>
+        <v>138.718994140625</v>
       </c>
       <c r="O22">
-        <v>138.718994140625</v>
+        <v>1340.119995117188</v>
       </c>
       <c r="P22">
-        <v>1340.119995117188</v>
+        <v>4.474999904632568</v>
       </c>
       <c r="Q22">
-        <v>4.474999904632568</v>
+        <v>19.29630088806152</v>
       </c>
       <c r="R22">
-        <v>19.29630088806152</v>
+        <v>3.838000059127808</v>
       </c>
       <c r="S22">
-        <v>3.838000059127808</v>
+        <v>56.625</v>
       </c>
       <c r="T22">
-        <v>56.625</v>
+        <v>4.526350021362305</v>
       </c>
       <c r="U22">
-        <v>4.526350021362305</v>
+        <v>23.50410079956055</v>
       </c>
       <c r="V22">
-        <v>23.50410079956055</v>
+        <v>4.747399806976318</v>
       </c>
       <c r="W22">
-        <v>4.747399806976318</v>
+        <v>61.81499862670898</v>
       </c>
       <c r="X22">
-        <v>61.81499862670898</v>
+        <v>3.753031969070435</v>
       </c>
       <c r="Y22">
-        <v>3.753031969070435</v>
+        <v>1.379050016403198</v>
       </c>
       <c r="Z22">
-        <v>1.379050016403198</v>
+        <v>17.12700080871582</v>
       </c>
       <c r="AA22">
-        <v>17.12700080871582</v>
+        <v>10.54846954345703</v>
       </c>
       <c r="AB22">
-        <v>10.54846954345703</v>
+        <v>0.9487900137901306</v>
       </c>
       <c r="AC22">
-        <v>0.9487900137901306</v>
+        <v>31.00609970092773</v>
       </c>
       <c r="AD22">
-        <v>31.00609970092773</v>
+        <v>35.78400039672852</v>
       </c>
       <c r="AE22">
-        <v>35.78400039672852</v>
+        <v>18.61849975585938</v>
       </c>
       <c r="AF22">
-        <v>18.61849975585938</v>
+        <v>0.8360999822616577</v>
       </c>
       <c r="AG22">
-        <v>0.8360999822616577</v>
+        <v>24770</v>
       </c>
       <c r="AH22">
-        <v>24770</v>
+        <v>0.9666000008583069</v>
       </c>
       <c r="AI22">
-        <v>0.9666000008583069</v>
+        <v>106.8199996948242</v>
       </c>
       <c r="AJ22">
-        <v>106.8199996948242</v>
+        <v>3.630000114440918</v>
       </c>
       <c r="AK22">
-        <v>3.630000114440918</v>
+        <v>3957.6298828125</v>
       </c>
       <c r="AL22">
-        <v>3957.6298828125</v>
+        <v>21.88999938964844</v>
       </c>
       <c r="AM22">
-        <v>21.88999938964844</v>
-      </c>
-      <c r="AN22">
         <v>3.747999906539917</v>
       </c>
       <c r="AO22">
@@ -3400,111 +3337,108 @@
         <v>166.9564971923828</v>
       </c>
       <c r="E23">
-        <v>5.268199920654297</v>
+        <v>1.358360052108765</v>
       </c>
       <c r="F23">
-        <v>1.358360052108765</v>
+        <v>7.15939998626709</v>
       </c>
       <c r="G23">
-        <v>7.15939998626709</v>
+        <v>900.0499877929688</v>
       </c>
       <c r="H23">
-        <v>900.0499877929688</v>
+        <v>4809.33984375</v>
       </c>
       <c r="I23">
-        <v>4809.33984375</v>
+        <v>7.810750007629395</v>
       </c>
       <c r="J23">
-        <v>7.810750007629395</v>
+        <v>393.1900024414062</v>
       </c>
       <c r="K23">
-        <v>393.1900024414062</v>
+        <v>15726.5</v>
       </c>
       <c r="L23">
-        <v>15726.5</v>
+        <v>81.63089752197266</v>
       </c>
       <c r="M23">
-        <v>81.63089752197266</v>
+        <v>3.435679912567139</v>
       </c>
       <c r="N23">
-        <v>3.435679912567139</v>
+        <v>138.7449951171875</v>
       </c>
       <c r="O23">
-        <v>138.7449951171875</v>
+        <v>1325.369995117188</v>
       </c>
       <c r="P23">
-        <v>1325.369995117188</v>
+        <v>4.50629997253418</v>
       </c>
       <c r="Q23">
-        <v>4.50629997253418</v>
+        <v>19.23200035095215</v>
       </c>
       <c r="R23">
-        <v>19.23200035095215</v>
+        <v>3.839999914169312</v>
       </c>
       <c r="S23">
-        <v>3.839999914169312</v>
+        <v>56.48300170898438</v>
       </c>
       <c r="T23">
-        <v>56.48300170898438</v>
+        <v>4.526183128356934</v>
       </c>
       <c r="U23">
-        <v>4.526183128356934</v>
+        <v>23.56100082397461</v>
       </c>
       <c r="V23">
-        <v>23.56100082397461</v>
+        <v>4.759099960327148</v>
       </c>
       <c r="W23">
-        <v>4.759099960327148</v>
+        <v>60.81000137329102</v>
       </c>
       <c r="X23">
-        <v>60.81000137329102</v>
+        <v>3.752762079238892</v>
       </c>
       <c r="Y23">
-        <v>3.752762079238892</v>
+        <v>1.375339984893799</v>
       </c>
       <c r="Z23">
-        <v>1.375339984893799</v>
+        <v>16.96805000305176</v>
       </c>
       <c r="AA23">
-        <v>16.96805000305176</v>
+        <v>10.59405040740967</v>
       </c>
       <c r="AB23">
-        <v>10.59405040740967</v>
+        <v>0.9543099999427795</v>
       </c>
       <c r="AC23">
-        <v>0.9543099999427795</v>
+        <v>30.94599914550781</v>
       </c>
       <c r="AD23">
-        <v>30.94599914550781</v>
+        <v>35.41699981689453</v>
       </c>
       <c r="AE23">
-        <v>35.41699981689453</v>
+        <v>18.63990020751953</v>
       </c>
       <c r="AF23">
-        <v>18.63990020751953</v>
+        <v>0.8370400071144104</v>
       </c>
       <c r="AG23">
-        <v>0.8370400071144104</v>
+        <v>24750</v>
       </c>
       <c r="AH23">
-        <v>24750</v>
+        <v>0.9685699939727783</v>
       </c>
       <c r="AI23">
-        <v>0.9685699939727783</v>
+        <v>105.9499969482422</v>
       </c>
       <c r="AJ23">
-        <v>105.9499969482422</v>
+        <v>3.72950005531311</v>
       </c>
       <c r="AK23">
-        <v>3.72950005531311</v>
+        <v>4080.110107421875</v>
       </c>
       <c r="AL23">
-        <v>4080.110107421875</v>
+        <v>20.57999992370605</v>
       </c>
       <c r="AM23">
-        <v>20.57999992370605</v>
-      </c>
-      <c r="AN23">
         <v>3.703000068664551</v>
       </c>
       <c r="AO23">
@@ -3531,111 +3465,108 @@
         <v>167.2916870117188</v>
       </c>
       <c r="E24">
-        <v>5.181589126586914</v>
+        <v>1.341199994087219</v>
       </c>
       <c r="F24">
-        <v>1.341199994087219</v>
+        <v>7.076200008392334</v>
       </c>
       <c r="G24">
-        <v>7.076200008392334</v>
+        <v>890</v>
       </c>
       <c r="H24">
-        <v>890</v>
+        <v>4828.2998046875</v>
       </c>
       <c r="I24">
-        <v>4828.2998046875</v>
+        <v>7.80472993850708</v>
       </c>
       <c r="J24">
-        <v>7.80472993850708</v>
+        <v>392.1199951171875</v>
       </c>
       <c r="K24">
-        <v>392.1199951171875</v>
+        <v>15634.5</v>
       </c>
       <c r="L24">
-        <v>15634.5</v>
+        <v>81.3052978515625</v>
       </c>
       <c r="M24">
-        <v>81.3052978515625</v>
+        <v>3.448299884796143</v>
       </c>
       <c r="N24">
-        <v>3.448299884796143</v>
+        <v>137.3589935302734</v>
       </c>
       <c r="O24">
-        <v>137.3589935302734</v>
+        <v>1279.800048828125</v>
       </c>
       <c r="P24">
-        <v>1279.800048828125</v>
+        <v>4.475299835205078</v>
       </c>
       <c r="Q24">
-        <v>4.475299835205078</v>
+        <v>19.26485061645508</v>
       </c>
       <c r="R24">
-        <v>19.26485061645508</v>
+        <v>3.829999923706055</v>
       </c>
       <c r="S24">
-        <v>3.829999923706055</v>
+        <v>56.36999893188477</v>
       </c>
       <c r="T24">
-        <v>56.36999893188477</v>
+        <v>4.476761817932129</v>
       </c>
       <c r="U24">
-        <v>4.476761817932129</v>
+        <v>23.33110046386719</v>
       </c>
       <c r="V24">
-        <v>23.33110046386719</v>
+        <v>4.723599910736084</v>
       </c>
       <c r="W24">
-        <v>4.723599910736084</v>
+        <v>60.9900016784668</v>
       </c>
       <c r="X24">
-        <v>60.9900016784668</v>
+        <v>3.754513025283813</v>
       </c>
       <c r="Y24">
-        <v>3.754513025283813</v>
+        <v>1.359300017356873</v>
       </c>
       <c r="Z24">
-        <v>1.359300017356873</v>
+        <v>17.10969924926758</v>
       </c>
       <c r="AA24">
-        <v>17.10969924926758</v>
+        <v>10.47436046600342</v>
       </c>
       <c r="AB24">
-        <v>10.47436046600342</v>
+        <v>0.943880021572113</v>
       </c>
       <c r="AC24">
-        <v>0.943880021572113</v>
+        <v>30.77799987792969</v>
       </c>
       <c r="AD24">
-        <v>30.77799987792969</v>
+        <v>35.06999969482422</v>
       </c>
       <c r="AE24">
-        <v>35.06999969482422</v>
+        <v>18.6299991607666</v>
       </c>
       <c r="AF24">
-        <v>18.6299991607666</v>
+        <v>0.8279860019683838</v>
       </c>
       <c r="AG24">
-        <v>0.8279860019683838</v>
+        <v>24630</v>
       </c>
       <c r="AH24">
-        <v>24630</v>
+        <v>0.9592000246047974</v>
       </c>
       <c r="AI24">
-        <v>0.9592000246047974</v>
+        <v>104.7300033569336</v>
       </c>
       <c r="AJ24">
-        <v>104.7300033569336</v>
+        <v>3.813999891281128</v>
       </c>
       <c r="AK24">
-        <v>3.813999891281128</v>
+        <v>4076.570068359375</v>
       </c>
       <c r="AL24">
-        <v>4076.570068359375</v>
+        <v>19.84000015258789</v>
       </c>
       <c r="AM24">
-        <v>19.84000015258789</v>
-      </c>
-      <c r="AN24">
         <v>3.529000043869019</v>
       </c>
       <c r="AO24">
@@ -3662,111 +3593,108 @@
         <v>167.6437072753906</v>
       </c>
       <c r="E25">
-        <v>5.183599948883057</v>
+        <v>1.343549966812134</v>
       </c>
       <c r="F25">
-        <v>1.343549966812134</v>
+        <v>7.043700218200684</v>
       </c>
       <c r="G25">
-        <v>7.043700218200684</v>
+        <v>879.1099853515625</v>
       </c>
       <c r="H25">
-        <v>879.1099853515625</v>
+        <v>4785.580078125</v>
       </c>
       <c r="I25">
-        <v>4785.580078125</v>
+        <v>7.779500007629395</v>
       </c>
       <c r="J25">
-        <v>7.779500007629395</v>
+        <v>391.3999938964844</v>
       </c>
       <c r="K25">
-        <v>391.3999938964844</v>
+        <v>15355.5</v>
       </c>
       <c r="L25">
-        <v>15355.5</v>
+        <v>81.16220092773438</v>
       </c>
       <c r="M25">
-        <v>81.16220092773438</v>
+        <v>3.390899896621704</v>
       </c>
       <c r="N25">
-        <v>3.390899896621704</v>
+        <v>135.1499938964844</v>
       </c>
       <c r="O25">
-        <v>135.1499938964844</v>
+        <v>1303.25</v>
       </c>
       <c r="P25">
-        <v>1303.25</v>
+        <v>4.402500152587891</v>
       </c>
       <c r="Q25">
-        <v>4.402500152587891</v>
+        <v>19.12829971313477</v>
       </c>
       <c r="R25">
-        <v>19.12829971313477</v>
+        <v>3.816999912261963</v>
       </c>
       <c r="S25">
-        <v>3.816999912261963</v>
+        <v>56.03499984741211</v>
       </c>
       <c r="T25">
-        <v>56.03499984741211</v>
+        <v>4.451179981231689</v>
       </c>
       <c r="U25">
-        <v>4.451179981231689</v>
+        <v>23.1348991394043</v>
       </c>
       <c r="V25">
-        <v>23.1348991394043</v>
+        <v>4.679699897766113</v>
       </c>
       <c r="W25">
-        <v>4.679699897766113</v>
+        <v>61.18000030517578</v>
       </c>
       <c r="X25">
-        <v>61.18000030517578</v>
+        <v>3.756067037582397</v>
       </c>
       <c r="Y25">
-        <v>3.756067037582397</v>
+        <v>1.35319995880127</v>
       </c>
       <c r="Z25">
-        <v>1.35319995880127</v>
+        <v>17.52482986450195</v>
       </c>
       <c r="AA25">
-        <v>17.52482986450195</v>
+        <v>10.296950340271</v>
       </c>
       <c r="AB25">
-        <v>10.296950340271</v>
+        <v>0.9363899827003479</v>
       </c>
       <c r="AC25">
-        <v>0.9363899827003479</v>
+        <v>30.58779907226562</v>
       </c>
       <c r="AD25">
-        <v>30.58779907226562</v>
+        <v>34.79000091552734</v>
       </c>
       <c r="AE25">
-        <v>34.79000091552734</v>
+        <v>18.63260078430176</v>
       </c>
       <c r="AF25">
-        <v>18.63260078430176</v>
+        <v>0.8157100081443787</v>
       </c>
       <c r="AG25">
-        <v>0.8157100081443787</v>
+        <v>24500</v>
       </c>
       <c r="AH25">
-        <v>24500</v>
+        <v>0.9498100280761719</v>
       </c>
       <c r="AI25">
-        <v>0.9498100280761719</v>
+        <v>104.5500030517578</v>
       </c>
       <c r="AJ25">
-        <v>104.5500030517578</v>
+        <v>3.848000049591064</v>
       </c>
       <c r="AK25">
-        <v>3.848000049591064</v>
+        <v>4071.699951171875</v>
       </c>
       <c r="AL25">
-        <v>4071.699951171875</v>
+        <v>19.05999946594238</v>
       </c>
       <c r="AM25">
-        <v>19.05999946594238</v>
-      </c>
-      <c r="AN25">
         <v>3.50600004196167</v>
       </c>
       <c r="AO25">
@@ -3787,118 +3715,115 @@
         <v>44900</v>
       </c>
       <c r="C26">
-        <v>1.489070057868958</v>
+        <v>1.467779994010925</v>
       </c>
       <c r="D26">
-        <v>169.1199951171875</v>
+        <v>167.9067993164062</v>
       </c>
       <c r="E26">
-        <v>5.260799884796143</v>
+        <v>1.34440004825592</v>
       </c>
       <c r="F26">
-        <v>1.356920003890991</v>
+        <v>7.023900032043457</v>
       </c>
       <c r="G26">
-        <v>6.960999965667725</v>
+        <v>883</v>
       </c>
       <c r="H26">
-        <v>891.0900268554688</v>
+        <v>4771.85009765625</v>
       </c>
       <c r="I26">
-        <v>4817.83984375</v>
+        <v>7.785140037536621</v>
       </c>
       <c r="J26">
-        <v>7.769259929656982</v>
+        <v>387.8599853515625</v>
       </c>
       <c r="K26">
-        <v>393.6000061035156</v>
+        <v>15421</v>
       </c>
       <c r="L26">
-        <v>15464</v>
+        <v>81.42250061035156</v>
       </c>
       <c r="M26">
-        <v>81.76999664306641</v>
+        <v>3.405200004577637</v>
       </c>
       <c r="N26">
-        <v>3.399899959564209</v>
+        <v>134.4750061035156</v>
       </c>
       <c r="O26">
-        <v>136.6089935302734</v>
+        <v>1299.170043945312</v>
       </c>
       <c r="P26">
-        <v>1304.089965820312</v>
+        <v>4.385499954223633</v>
       </c>
       <c r="Q26">
-        <v>4.366000175476074</v>
+        <v>19.38298988342285</v>
       </c>
       <c r="R26">
-        <v>19.76367950439453</v>
+        <v>3.746428966522217</v>
       </c>
       <c r="S26">
-        <v>3.835000038146973</v>
+        <v>55.72499847412109</v>
       </c>
       <c r="T26">
-        <v>55.95000076293945</v>
+        <v>4.428414821624756</v>
       </c>
       <c r="U26">
-        <v>4.479949951171875</v>
+        <v>23.09309959411621</v>
       </c>
       <c r="V26">
-        <v>23.15180015563965</v>
+        <v>4.668300151824951</v>
       </c>
       <c r="W26">
-        <v>4.677299976348877</v>
+        <v>60.51499938964844</v>
       </c>
       <c r="X26">
-        <v>62.62200164794922</v>
+        <v>3.757299900054932</v>
       </c>
       <c r="Y26">
-        <v>3.758500099182129</v>
+        <v>1.350329995155334</v>
       </c>
       <c r="Z26">
-        <v>1.356259942054749</v>
+        <v>17.2898006439209</v>
       </c>
       <c r="AA26">
-        <v>17.45133972167969</v>
+        <v>10.31482982635498</v>
       </c>
       <c r="AB26">
-        <v>10.3886604309082</v>
+        <v>0.9364500045776367</v>
       </c>
       <c r="AC26">
-        <v>0.9415799975395203</v>
+        <v>30.53800010681152</v>
       </c>
       <c r="AD26">
-        <v>30.54899978637695</v>
+        <v>34.66999816894531</v>
       </c>
       <c r="AE26">
-        <v>35.0099983215332</v>
+        <v>18.63069915771484</v>
       </c>
       <c r="AF26">
-        <v>18.63367080688477</v>
+        <v>0.8131899833679199</v>
       </c>
       <c r="AG26">
-        <v>0.8212900161743164</v>
+        <v>24350</v>
       </c>
       <c r="AH26">
-        <v>23980</v>
+        <v>0.948390007019043</v>
       </c>
       <c r="AI26">
-        <v>0.9513999819755554</v>
+        <v>105.2900009155273</v>
       </c>
       <c r="AJ26">
-        <v>105.125</v>
+        <v>3.789499998092651</v>
       </c>
       <c r="AK26">
-        <v>3.8125</v>
+        <v>3998.840087890625</v>
       </c>
       <c r="AL26">
-        <v>4021.340087890625</v>
+        <v>20.75</v>
       </c>
       <c r="AM26">
-        <v>20.34000015258789</v>
-      </c>
-      <c r="AN26">
-        <v>3.581000089645386</v>
+        <v>3.598999977111816</v>
       </c>
       <c r="AO26">
         <v>2022</v>
@@ -3908,6 +3833,128 @@
       </c>
       <c r="AQ26">
         <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44901</v>
+      </c>
+      <c r="C27">
+        <v>1.490800023078918</v>
+      </c>
+      <c r="D27">
+        <v>169.1454925537109</v>
+      </c>
+      <c r="E27">
+        <v>1.358800053596497</v>
+      </c>
+      <c r="F27">
+        <v>6.960899829864502</v>
+      </c>
+      <c r="G27">
+        <v>895.6300048828125</v>
+      </c>
+      <c r="H27">
+        <v>4823.3701171875</v>
+      </c>
+      <c r="I27">
+        <v>7.768899917602539</v>
+      </c>
+      <c r="J27">
+        <v>393.3550109863281</v>
+      </c>
+      <c r="K27">
+        <v>15520.2998046875</v>
+      </c>
+      <c r="L27">
+        <v>81.89900207519531</v>
+      </c>
+      <c r="M27">
+        <v>3.399960041046143</v>
+      </c>
+      <c r="N27">
+        <v>136.6519927978516</v>
+      </c>
+      <c r="O27">
+        <v>1304.369995117188</v>
+      </c>
+      <c r="P27">
+        <v>4.366000175476074</v>
+      </c>
+      <c r="Q27">
+        <v>19.72139930725098</v>
+      </c>
+      <c r="R27">
+        <v>3.825000047683716</v>
+      </c>
+      <c r="S27">
+        <v>55.97999954223633</v>
+      </c>
+      <c r="T27">
+        <v>4.485599994659424</v>
+      </c>
+      <c r="U27">
+        <v>23.09600067138672</v>
+      </c>
+      <c r="V27">
+        <v>4.679999828338623</v>
+      </c>
+      <c r="W27">
+        <v>60.51499938964844</v>
+      </c>
+      <c r="X27">
+        <v>3.753982067108154</v>
+      </c>
+      <c r="Y27">
+        <v>1.356099963188171</v>
+      </c>
+      <c r="Z27">
+        <v>17.44329071044922</v>
+      </c>
+      <c r="AA27">
+        <v>10.3992395401001</v>
+      </c>
+      <c r="AB27">
+        <v>0.942300021648407</v>
+      </c>
+      <c r="AC27">
+        <v>30.5629997253418</v>
+      </c>
+      <c r="AD27">
+        <v>35.04000091552734</v>
+      </c>
+      <c r="AE27">
+        <v>18.62459945678711</v>
+      </c>
+      <c r="AF27">
+        <v>0.8201799988746643</v>
+      </c>
+      <c r="AG27">
+        <v>23980</v>
+      </c>
+      <c r="AH27">
+        <v>0.9526600241661072</v>
+      </c>
+      <c r="AI27">
+        <v>105.5800018310547</v>
+      </c>
+      <c r="AJ27">
+        <v>3.811500072479248</v>
+      </c>
+      <c r="AM27">
+        <v>3.513000011444092</v>
+      </c>
+      <c r="AO27">
+        <v>2022</v>
+      </c>
+      <c r="AP27">
+        <v>12</v>
+      </c>
+      <c r="AQ27">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
